--- a/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,D16,ObjectOverwrite,Permanent,NDays,Calendar,_xll.ohPack(Selected!D2:D126),"Actual/365 (Fixed)",,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>_EURYCSTD#0001</v>
+        <v>_EURYCSTD#0000</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2558,9 +2558,9 @@
         <f>[1]Euribor!$E$7</f>
         <v>EURSTD#0001</v>
       </c>
-      <c r="D26" s="107" t="e">
-        <f ca="1">_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
-        <v>#NAME?</v>
+      <c r="D26" s="107" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(,C26,YieldCurve)</f>
+        <v>1</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="31"/>
@@ -14051,7 +14051,7 @@
       <c r="K3" s="78"/>
       <c r="L3" s="180" t="str">
         <f>_xll.qlEuribor(,,,,$I$1)</f>
-        <v>obj_00000#0001</v>
+        <v>obj_00004#0001</v>
       </c>
       <c r="M3" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b2#0004</v>
+        <v>obj_00013#0001</v>
       </c>
       <c r="K5" s="184" t="str">
         <f t="shared" ref="K5:K41" si="1">Currency&amp;$E5&amp;$F5&amp;$D5&amp;QuoteSuffix</f>
@@ -14151,7 +14151,7 @@
       </c>
       <c r="J6" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c3#0000</v>
+        <v>obj_00007#0001</v>
       </c>
       <c r="K6" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="J7" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005be#0000</v>
+        <v>obj_00015#0001</v>
       </c>
       <c r="K7" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="J8" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b9#0000</v>
+        <v>obj_00022#0001</v>
       </c>
       <c r="K8" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J9" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b7#0000</v>
+        <v>obj_0000e#0001</v>
       </c>
       <c r="K9" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="J10" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d4#0000</v>
+        <v>obj_00005#0001</v>
       </c>
       <c r="K10" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="J11" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d0#0000</v>
+        <v>obj_00025#0001</v>
       </c>
       <c r="K11" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="J12" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005cc#0000</v>
+        <v>obj_0000d#0001</v>
       </c>
       <c r="K12" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="J13" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c7#0000</v>
+        <v>obj_00010#0001</v>
       </c>
       <c r="K13" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="J14" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c2#0000</v>
+        <v>obj_00001#0001</v>
       </c>
       <c r="K14" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="J15" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005bd#0000</v>
+        <v>obj_00016#0001</v>
       </c>
       <c r="K15" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14611,7 +14611,7 @@
       </c>
       <c r="J16" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d7#0000</v>
+        <v>obj_00012#0001</v>
       </c>
       <c r="K16" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="J17" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d5#0000</v>
+        <v>obj_0001c#0001</v>
       </c>
       <c r="K17" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="J18" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d3#0000</v>
+        <v>obj_00009#0001</v>
       </c>
       <c r="K18" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="J19" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005cf#0000</v>
+        <v>obj_00011#0001</v>
       </c>
       <c r="K19" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="J20" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005cb#0000</v>
+        <v>obj_00008#0001</v>
       </c>
       <c r="K20" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J21" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c6#0000</v>
+        <v>obj_0001e#0001</v>
       </c>
       <c r="K21" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14887,7 +14887,7 @@
       </c>
       <c r="J22" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c1#0000</v>
+        <v>obj_00018#0001</v>
       </c>
       <c r="K22" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="J23" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005bc#0000</v>
+        <v>obj_0000b#0001</v>
       </c>
       <c r="K23" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="J24" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c8#0000</v>
+        <v>obj_00021#0001</v>
       </c>
       <c r="K24" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="J25" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b6#0000</v>
+        <v>obj_0001d#0001</v>
       </c>
       <c r="K25" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="J26" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d2#0000</v>
+        <v>obj_00003#0001</v>
       </c>
       <c r="K26" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="J27" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005ce#0000</v>
+        <v>obj_00014#0001</v>
       </c>
       <c r="K27" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="J28" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005ca#0000</v>
+        <v>obj_00002#0001</v>
       </c>
       <c r="K28" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="J29" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c5#0000</v>
+        <v>obj_0001b#0001</v>
       </c>
       <c r="K29" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15255,7 +15255,7 @@
       </c>
       <c r="J30" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c0#0000</v>
+        <v>obj_00017#0001</v>
       </c>
       <c r="K30" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="J31" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005bb#0000</v>
+        <v>obj_00006#0001</v>
       </c>
       <c r="K31" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="J32" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b8#0000</v>
+        <v>obj_00020#0001</v>
       </c>
       <c r="K32" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="J33" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b5#0000</v>
+        <v>obj_0001a#0001</v>
       </c>
       <c r="K33" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="J34" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d1#0000</v>
+        <v>obj_00019#0001</v>
       </c>
       <c r="K34" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="J35" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005cd#0000</v>
+        <v>obj_00024#0001</v>
       </c>
       <c r="K35" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="J36" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c9#0000</v>
+        <v>obj_00023#0001</v>
       </c>
       <c r="K36" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="J37" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005c4#0000</v>
+        <v>obj_0000c#0001</v>
       </c>
       <c r="K37" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="J38" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005bf#0000</v>
+        <v>obj_0000f#0001</v>
       </c>
       <c r="K38" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="J39" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005ba#0000</v>
+        <v>obj_00000#0001</v>
       </c>
       <c r="K39" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15715,7 +15715,7 @@
       </c>
       <c r="J40" s="188" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005d6#0000</v>
+        <v>obj_0001f#0001</v>
       </c>
       <c r="K40" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="J41" s="193" t="str">
         <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_005b4#0000</v>
+        <v>obj_0000a#0001</v>
       </c>
       <c r="K41" s="194" t="str">
         <f t="shared" si="1"/>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18585" yWindow="-15" windowWidth="18645" windowHeight="11700"/>
+    <workbookView xWindow="18585" yWindow="-15" windowWidth="18645" windowHeight="11700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -1840,7 +1840,7 @@
       <sheetData sheetId="1">
         <row r="7">
           <cell r="E7" t="str">
-            <v>EURSTD#0001</v>
+            <v>EURSTD#0005</v>
           </cell>
         </row>
       </sheetData>
@@ -2168,7 +2168,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2338,7 +2338,9 @@
       <c r="C11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="53">
+        <v>42242.881249999999</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
       <c r="H11" s="86"/>
@@ -2392,7 +2394,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,D16,ObjectOverwrite,Permanent,NDays,Calendar,_xll.ohPack(Selected!D2:D126),"Actual/365 (Fixed)",,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>_EURYCSTD#0000</v>
+        <v>_EURYCSTD#0006</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2518,11 +2520,11 @@
       <c r="B23" s="33"/>
       <c r="C23" s="37">
         <f>_xll.qlTermStructureReferenceDate(,YieldCurve)</f>
-        <v>42136</v>
+        <v>42242</v>
       </c>
       <c r="D23" s="36">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>5.0000000342362232E-2</v>
+        <v>5.0000000049465636E-2</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -2531,7 +2533,7 @@
       <c r="B24" s="33"/>
       <c r="C24" s="35">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>64053</v>
+        <v>64159</v>
       </c>
       <c r="D24" s="34">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
@@ -2556,7 +2558,7 @@
       <c r="B26" s="33"/>
       <c r="C26" s="108" t="str">
         <f>[1]Euribor!$E$7</f>
-        <v>EURSTD#0001</v>
+        <v>EURSTD#0005</v>
       </c>
       <c r="D26" s="107" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(,C26,YieldCurve)</f>
@@ -2665,7 +2667,7 @@
     <row r="2" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="110" t="str">
         <f>Deposits!E3</f>
-        <v>EUROND_Quote_rh#0000</v>
+        <v>EUROND_Quote_rh#0004</v>
       </c>
       <c r="C2" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B2)</f>
@@ -2687,11 +2689,11 @@
       </c>
       <c r="I2" s="114">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B2)</f>
-        <v>42136</v>
+        <v>42242</v>
       </c>
       <c r="J2" s="115">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B2)</f>
-        <v>42137</v>
+        <v>42243</v>
       </c>
       <c r="K2" s="62"/>
       <c r="L2" s="62"/>
@@ -2699,7 +2701,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="116" t="str">
         <f>Deposits!E4</f>
-        <v>EURTND_Quote_rh#0000</v>
+        <v>EURTND_Quote_rh#0004</v>
       </c>
       <c r="C3" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B3)</f>
@@ -2721,11 +2723,11 @@
       </c>
       <c r="I3" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B3)</f>
-        <v>42137</v>
+        <v>42243</v>
       </c>
       <c r="J3" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B3)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
@@ -2733,7 +2735,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="str">
         <f>Deposits!E5</f>
-        <v>EURSND_Quote_rh#0000</v>
+        <v>EURSND_Quote_rh#0004</v>
       </c>
       <c r="C4" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B4)</f>
@@ -2755,11 +2757,11 @@
       </c>
       <c r="I4" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B4)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J4" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B4)</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -2767,7 +2769,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="116" t="str">
         <f>Deposits!E6</f>
-        <v>EURSWD_Quote_rh#0000</v>
+        <v>EURSWD_Quote_rh#0004</v>
       </c>
       <c r="C5" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B5)</f>
@@ -2775,7 +2777,7 @@
       </c>
       <c r="D5" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B5)</f>
-        <v>-1.1100000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="E5" s="118"/>
       <c r="F5" s="119" t="b">
@@ -2789,11 +2791,11 @@
       </c>
       <c r="I5" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B5)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J5" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B5)</f>
-        <v>42145</v>
+        <v>42251</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
@@ -2801,7 +2803,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="116" t="str">
         <f>Deposits!E7</f>
-        <v>EUR1MD_Quote_rh#0000</v>
+        <v>EUR1MD_Quote_rh#0004</v>
       </c>
       <c r="C6" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B6)</f>
@@ -2809,7 +2811,7 @@
       </c>
       <c r="D6" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B6)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="E6" s="118"/>
       <c r="F6" s="119" t="b">
@@ -2823,11 +2825,11 @@
       </c>
       <c r="I6" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B6)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J6" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B6)</f>
-        <v>42170</v>
+        <v>42275</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
@@ -2835,7 +2837,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="116" t="str">
         <f>Deposits!E8</f>
-        <v>EUR2MD_Quote_rh#0000</v>
+        <v>EUR2MD_Quote_rh#0004</v>
       </c>
       <c r="C7" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B7)</f>
@@ -2843,7 +2845,7 @@
       </c>
       <c r="D7" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B7)</f>
-        <v>-2.7999999999999998E-4</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="E7" s="118"/>
       <c r="F7" s="119" t="b">
@@ -2857,11 +2859,11 @@
       </c>
       <c r="I7" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B7)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J7" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B7)</f>
-        <v>42199</v>
+        <v>42305</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
@@ -2869,7 +2871,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="116" t="str">
         <f>Deposits!E9</f>
-        <v>EUR3MD_Quote_rh#0000</v>
+        <v>EUR3MD_Quote_rh#0004</v>
       </c>
       <c r="C8" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B8)</f>
@@ -2877,7 +2879,7 @@
       </c>
       <c r="D8" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B8)</f>
-        <v>-8.9999999999999992E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="E8" s="118"/>
       <c r="F8" s="119" t="b">
@@ -2891,18 +2893,18 @@
       </c>
       <c r="I8" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B8)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J8" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B8)</f>
-        <v>42291</v>
+        <v>42397</v>
       </c>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="116" t="str">
         <f>Deposits!E10</f>
-        <v>EUR4MD_Quote_rh#0000</v>
+        <v>EUR4MD_Quote_rh#0004</v>
       </c>
       <c r="C9" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B9)</f>
@@ -2910,7 +2912,7 @@
       </c>
       <c r="D9" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B9)</f>
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E9" s="118"/>
       <c r="F9" s="119" t="b">
@@ -2924,11 +2926,11 @@
       </c>
       <c r="I9" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B9)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J9" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B9)</f>
-        <v>42261</v>
+        <v>42366</v>
       </c>
       <c r="M9" s="8"/>
       <c r="O9" s="9"/>
@@ -2936,7 +2938,7 @@
     <row r="10" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="116" t="str">
         <f>Deposits!E11</f>
-        <v>EUR5MD_Quote_rh#0000</v>
+        <v>EUR5MD_Quote_rh#0004</v>
       </c>
       <c r="C10" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B10)</f>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="D10" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B10)</f>
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E10" s="118"/>
       <c r="F10" s="119" t="b">
@@ -2958,11 +2960,11 @@
       </c>
       <c r="I10" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B10)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J10" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B10)</f>
-        <v>42291</v>
+        <v>42397</v>
       </c>
       <c r="M10" s="8"/>
       <c r="O10" s="9"/>
@@ -2970,7 +2972,7 @@
     <row r="11" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="116" t="str">
         <f>Deposits!E12</f>
-        <v>EUR6MD_Quote_rh#0000</v>
+        <v>EUR6MD_Quote_rh#0004</v>
       </c>
       <c r="C11" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B11)</f>
@@ -2978,7 +2980,7 @@
       </c>
       <c r="D11" s="118">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B11)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E11" s="118"/>
       <c r="F11" s="119" t="b">
@@ -2992,11 +2994,11 @@
       </c>
       <c r="I11" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B11)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J11" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B11)</f>
-        <v>42324</v>
+        <v>42429</v>
       </c>
       <c r="M11" s="8"/>
       <c r="O11" s="9"/>
@@ -3005,11 +3007,11 @@
       <c r="A12" s="6"/>
       <c r="B12" s="110" t="str">
         <f>Futures!J3</f>
-        <v>EURFUT3MK5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C12" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B12)</f>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="D12" s="128">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B12)</f>
@@ -3030,26 +3032,26 @@
       </c>
       <c r="I12" s="114">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B12)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="J12" s="115">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B12)</f>
-        <v>42297</v>
+        <v>42416</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="116" t="str">
         <f>Futures!J4</f>
-        <v>EURFUT3MM5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MV5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C13" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B13)</f>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="D13" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B13)</f>
-        <v>100.00749999999999</v>
+        <v>100.0025</v>
       </c>
       <c r="E13" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B13,Trigger)</f>
@@ -3066,26 +3068,26 @@
       </c>
       <c r="I13" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B13)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="J13" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B13)</f>
-        <v>42325</v>
+        <v>42450</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="116" t="str">
         <f>Futures!J5</f>
-        <v>EURFUT3MN5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MX5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C14" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B14)</f>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="D14" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B14)</f>
-        <v>0</v>
+        <v>100.015</v>
       </c>
       <c r="E14" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B14,Trigger)</f>
@@ -3102,22 +3104,22 @@
       </c>
       <c r="I14" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B14)</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="J14" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B14)</f>
-        <v>42353</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="116" t="str">
         <f>Futures!J6</f>
-        <v>EURFUT3MQ5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C15" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B15)</f>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="D15" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B15)</f>
@@ -3138,26 +3140,26 @@
       </c>
       <c r="I15" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B15)</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="J15" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B15)</f>
-        <v>42388</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="116" t="str">
         <f>Futures!J7</f>
-        <v>EURFUT3MU5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MF6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C16" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B16)</f>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="D16" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B16)</f>
-        <v>100.0025</v>
+        <v>100.00749999999999</v>
       </c>
       <c r="E16" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B16,Trigger)</f>
@@ -3174,22 +3176,22 @@
       </c>
       <c r="I16" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B16)</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="J16" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B16)</f>
-        <v>42416</v>
+        <v>42541</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="116" t="str">
         <f>Futures!J8</f>
-        <v>EURFUT3MV5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MG6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C17" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B17)</f>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="D17" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B17)</f>
@@ -3210,22 +3212,22 @@
       </c>
       <c r="I17" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B17)</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="J17" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B17)</f>
-        <v>42450</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="116" t="str">
         <f>Futures!J9</f>
-        <v>EURFUT3MX5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C18" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B18)</f>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="D18" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B18)</f>
@@ -3246,26 +3248,26 @@
       </c>
       <c r="I18" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B18)</f>
-        <v>42326</v>
+        <v>42445</v>
       </c>
       <c r="J18" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B18)</f>
-        <v>42478</v>
+        <v>42598</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="116" t="str">
         <f>Futures!J10</f>
-        <v>EURFUT3MZ5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MJ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C19" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B19)</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MJ6_Quote</v>
       </c>
       <c r="D19" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B19)</f>
-        <v>99.992500000000007</v>
+        <v>100.0025</v>
       </c>
       <c r="E19" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B19,Trigger)</f>
@@ -3282,22 +3284,22 @@
       </c>
       <c r="I19" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B19)</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
       <c r="J19" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B19)</f>
-        <v>42506</v>
+        <v>42633</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="116" t="str">
         <f>Futures!J11</f>
-        <v>EURFUT3MF6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MK6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C20" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B20)</f>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MK6_Quote</v>
       </c>
       <c r="D20" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B20)</f>
@@ -3318,22 +3320,22 @@
       </c>
       <c r="I20" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B20)</f>
-        <v>42389</v>
+        <v>42508</v>
       </c>
       <c r="J20" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B20)</f>
-        <v>42541</v>
+        <v>42661</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="116" t="str">
         <f>Futures!J12</f>
-        <v>EURFUT3MG6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C21" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B21)</f>
-        <v>EURFUT3MG6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="D21" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B21)</f>
@@ -3354,26 +3356,26 @@
       </c>
       <c r="I21" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B21)</f>
-        <v>42417</v>
+        <v>42536</v>
       </c>
       <c r="J21" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B21)</f>
-        <v>42569</v>
+        <v>42689</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="116" t="str">
         <f>Futures!J13</f>
-        <v>EURFUT3MH6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MN6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C22" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B22)</f>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MN6_Quote</v>
       </c>
       <c r="D22" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B22)</f>
-        <v>99.977499999999992</v>
+        <v>99.992500000000007</v>
       </c>
       <c r="E22" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B22,Trigger)</f>
@@ -3390,22 +3392,22 @@
       </c>
       <c r="I22" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B22)</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
       <c r="J22" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B22)</f>
-        <v>42598</v>
+        <v>42724</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="116" t="str">
         <f>Futures!J14</f>
-        <v>EURFUT3MJ6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MQ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C23" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B23)</f>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MQ6_Quote</v>
       </c>
       <c r="D23" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B23)</f>
@@ -3426,26 +3428,26 @@
       </c>
       <c r="I23" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B23)</f>
-        <v>42480</v>
+        <v>42599</v>
       </c>
       <c r="J23" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B23)</f>
-        <v>42633</v>
+        <v>42752</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="116" t="str">
         <f>Futures!J15</f>
-        <v>EURFUT3MM6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C24" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B24)</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="D24" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B24)</f>
-        <v>99.962500000000006</v>
+        <v>99.977499999999992</v>
       </c>
       <c r="E24" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B24,Trigger)</f>
@@ -3462,26 +3464,26 @@
       </c>
       <c r="I24" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B24)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="J24" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B24)</f>
-        <v>42689</v>
+        <v>42787</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="116" t="str">
         <f>Futures!J16</f>
-        <v>EURFUT3MU6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C25" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B25)</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="D25" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B25)</f>
-        <v>99.932500000000005</v>
+        <v>99.947499999999991</v>
       </c>
       <c r="E25" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B25,Trigger)</f>
@@ -3498,26 +3500,26 @@
       </c>
       <c r="I25" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B25)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="J25" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B25)</f>
-        <v>42787</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="116" t="str">
         <f>Futures!J17</f>
-        <v>EURFUT3MZ6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C26" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B26)</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="D26" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B26)</f>
-        <v>99.892499999999998</v>
+        <v>99.907499999999999</v>
       </c>
       <c r="E26" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B26,Trigger)</f>
@@ -3534,26 +3536,26 @@
       </c>
       <c r="I26" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B26)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="J26" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B26)</f>
-        <v>42877</v>
+        <v>42962</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="116" t="str">
         <f>Futures!J18</f>
-        <v>EURFUT3MH7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C27" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B27)</f>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="D27" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B27)</f>
-        <v>99.847499999999997</v>
+        <v>99.862499999999997</v>
       </c>
       <c r="E27" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B27,Trigger)</f>
@@ -3570,26 +3572,26 @@
       </c>
       <c r="I27" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B27)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="J27" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B27)</f>
-        <v>42962</v>
+        <v>43060</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="116" t="str">
         <f>Futures!J19</f>
-        <v>EURFUT3MM7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C28" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B28)</f>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="D28" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B28)</f>
-        <v>99.797499999999999</v>
+        <v>99.8125</v>
       </c>
       <c r="E28" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B28,Trigger)</f>
@@ -3606,26 +3608,26 @@
       </c>
       <c r="I28" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B28)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="J28" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B28)</f>
-        <v>43060</v>
+        <v>43151</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="116" t="str">
         <f>Futures!J20</f>
-        <v>EURFUT3MU7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C29" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B29)</f>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="D29" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B29)</f>
-        <v>99.742500000000007</v>
+        <v>99.752499999999998</v>
       </c>
       <c r="E29" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B29,Trigger)</f>
@@ -3642,26 +3644,26 @@
       </c>
       <c r="I29" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B29)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="J29" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B29)</f>
-        <v>43151</v>
+        <v>43241</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="116" t="str">
         <f>Futures!J21</f>
-        <v>EURFUT3MZ7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C30" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B30)</f>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="D30" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B30)</f>
-        <v>99.682500000000005</v>
+        <v>99.692499999999995</v>
       </c>
       <c r="E30" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B30,Trigger)</f>
@@ -3678,26 +3680,26 @@
       </c>
       <c r="I30" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B30)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="J30" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B30)</f>
-        <v>43241</v>
+        <v>43333</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="116" t="str">
         <f>Futures!J22</f>
-        <v>EURFUT3MH8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C31" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B31)</f>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="D31" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B31)</f>
-        <v>99.617500000000007</v>
+        <v>99.627499999999998</v>
       </c>
       <c r="E31" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B31,Trigger)</f>
@@ -3714,26 +3716,26 @@
       </c>
       <c r="I31" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B31)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="J31" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B31)</f>
-        <v>43333</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="116" t="str">
         <f>Futures!J23</f>
-        <v>EURFUT3MM8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C32" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B32)</f>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="D32" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B32)</f>
-        <v>99.547499999999999</v>
+        <v>99.555000000000007</v>
       </c>
       <c r="E32" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B32,Trigger)</f>
@@ -3750,26 +3752,26 @@
       </c>
       <c r="I32" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B32)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="J32" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B32)</f>
-        <v>43424</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="116" t="str">
         <f>Futures!J24</f>
-        <v>EURFUT3MU8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C33" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B33)</f>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="D33" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B33)</f>
-        <v>99.477499999999992</v>
+        <v>99.47999999999999</v>
       </c>
       <c r="E33" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B33,Trigger)</f>
@@ -3786,22 +3788,22 @@
       </c>
       <c r="I33" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B33)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="J33" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B33)</f>
-        <v>43515</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="116" t="str">
         <f>Futures!J25</f>
-        <v>EURFUT3MZ8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C34" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B34)</f>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="D34" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B34)</f>
@@ -3822,22 +3824,22 @@
       </c>
       <c r="I34" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B34)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="J34" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B34)</f>
-        <v>43605</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="116" t="str">
         <f>Futures!J26</f>
-        <v>EURFUT3MH9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C35" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B35)</f>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="D35" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B35)</f>
@@ -3858,26 +3860,26 @@
       </c>
       <c r="I35" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B35)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="J35" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B35)</f>
-        <v>43697</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="116" t="str">
         <f>Futures!J27</f>
-        <v>EURFUT3MM9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C36" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B36)</f>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="D36" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B36)</f>
-        <v>99.259999999999991</v>
+        <v>99.262499999999989</v>
       </c>
       <c r="E36" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B36,Trigger)</f>
@@ -3894,26 +3896,26 @@
       </c>
       <c r="I36" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B36)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="J36" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B36)</f>
-        <v>43788</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="116" t="str">
         <f>Futures!J28</f>
-        <v>EURFUT3MU9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C37" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B37)</f>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="D37" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B37)</f>
-        <v>99.1875</v>
+        <v>99.197499999999991</v>
       </c>
       <c r="E37" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B37,Trigger)</f>
@@ -3930,26 +3932,26 @@
       </c>
       <c r="I37" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B37)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="J37" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B37)</f>
-        <v>43879</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="116" t="str">
         <f>Futures!J29</f>
-        <v>EURFUT3MZ9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C38" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B38)</f>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="D38" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B38)</f>
-        <v>99.11</v>
+        <v>99.13</v>
       </c>
       <c r="E38" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B38,Trigger)</f>
@@ -3966,26 +3968,26 @@
       </c>
       <c r="I38" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B38)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="J38" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B38)</f>
-        <v>43969</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="116" t="str">
         <f>Futures!J30</f>
-        <v>EURFUT3MH0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C39" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B39)</f>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="D39" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B39)</f>
-        <v>99.034999999999997</v>
+        <v>99.06</v>
       </c>
       <c r="E39" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B39,Trigger)</f>
@@ -4002,26 +4004,26 @@
       </c>
       <c r="I39" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B39)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="J39" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B39)</f>
-        <v>44061</v>
+        <v>44152</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="116" t="str">
         <f>Futures!J31</f>
-        <v>EURFUT3MM0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C40" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B40)</f>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="D40" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B40)</f>
-        <v>98.962500000000006</v>
+        <v>98.990000000000009</v>
       </c>
       <c r="E40" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B40,Trigger)</f>
@@ -4038,26 +4040,26 @@
       </c>
       <c r="I40" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B40)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="J40" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B40)</f>
-        <v>44152</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="116" t="str">
         <f>Futures!J32</f>
-        <v>EURFUT3MU0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C41" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B41)</f>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="D41" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B41)</f>
-        <v>98.887500000000003</v>
+        <v>98.92</v>
       </c>
       <c r="E41" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B41,Trigger)</f>
@@ -4074,26 +4076,26 @@
       </c>
       <c r="I41" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B41)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="J41" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B41)</f>
-        <v>44243</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="116" t="str">
         <f>Futures!J33</f>
-        <v>EURFUT3MZ0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C42" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B42)</f>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="D42" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B42)</f>
-        <v>98.817499999999995</v>
+        <v>98.855000000000004</v>
       </c>
       <c r="E42" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B42,Trigger)</f>
@@ -4110,26 +4112,26 @@
       </c>
       <c r="I42" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B42)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="J42" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B42)</f>
-        <v>44333</v>
+        <v>44425</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="116" t="str">
         <f>Futures!J34</f>
-        <v>EURFUT3MH1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C43" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B43)</f>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="D43" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B43)</f>
-        <v>98.75</v>
+        <v>98.797499999999999</v>
       </c>
       <c r="E43" s="118" t="e">
         <f ca="1">_xll.qlFuturesRateHelperConvexityAdjustment($B43,Trigger)</f>
@@ -4146,22 +4148,22 @@
       </c>
       <c r="I43" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B43)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="J43" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B43)</f>
-        <v>44425</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="116" t="str">
         <f>Futures!J35</f>
-        <v>EURFUT3MM1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C44" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B44)</f>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="D44" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B44)</f>
@@ -4182,22 +4184,22 @@
       </c>
       <c r="I44" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B44)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="J44" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B44)</f>
-        <v>44516</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="116" t="str">
         <f>Futures!J36</f>
-        <v>EURFUT3MU1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C45" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B45)</f>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="D45" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B45)</f>
@@ -4218,22 +4220,22 @@
       </c>
       <c r="I45" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B45)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="J45" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B45)</f>
-        <v>44607</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="116" t="str">
         <f>Futures!J37</f>
-        <v>EURFUT3MZ1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C46" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B46)</f>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="D46" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B46)</f>
@@ -4254,22 +4256,22 @@
       </c>
       <c r="I46" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B46)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="J46" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B46)</f>
-        <v>44697</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="116" t="str">
         <f>Futures!J38</f>
-        <v>EURFUT3MH2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C47" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B47)</f>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="D47" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B47)</f>
@@ -4290,22 +4292,22 @@
       </c>
       <c r="I47" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B47)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="J47" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B47)</f>
-        <v>44789</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="str">
         <f>Futures!J39</f>
-        <v>EURFUT3MM2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C48" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B48)</f>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="D48" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B48)</f>
@@ -4326,22 +4328,22 @@
       </c>
       <c r="I48" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B48)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="J48" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B48)</f>
-        <v>44880</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="116" t="str">
         <f>Futures!J40</f>
-        <v>EURFUT3MU2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C49" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B49)</f>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="D49" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B49)</f>
@@ -4362,22 +4364,22 @@
       </c>
       <c r="I49" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B49)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="J49" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B49)</f>
-        <v>44978</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="116" t="str">
         <f>Futures!J41</f>
-        <v>EURFUT3MZ2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C50" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B50)</f>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="D50" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B50)</f>
@@ -4398,22 +4400,22 @@
       </c>
       <c r="I50" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B50)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="J50" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B50)</f>
-        <v>45068</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="116" t="str">
         <f>Futures!J42</f>
-        <v>EURFUT3MH3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C51" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B51)</f>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="D51" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B51)</f>
@@ -4434,22 +4436,22 @@
       </c>
       <c r="I51" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B51)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="J51" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B51)</f>
-        <v>45153</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="116" t="str">
         <f>Futures!J43</f>
-        <v>EURFUT3MM3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C52" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B52)</f>
-        <v>EURFUT3MM3_Quote</v>
+        <v>EURFUT3MU3_Quote</v>
       </c>
       <c r="D52" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B52)</f>
@@ -4470,22 +4472,22 @@
       </c>
       <c r="I52" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B52)</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="J52" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B52)</f>
-        <v>45251</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="116" t="str">
         <f>Futures!J44</f>
-        <v>EURFUT3MU3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="C53" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B53)</f>
-        <v>EURFUT3MU3_Quote</v>
+        <v>EURFUT3MZ3_Quote</v>
       </c>
       <c r="D53" s="129">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B53)</f>
@@ -4506,11 +4508,11 @@
       </c>
       <c r="I53" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B53)</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="J53" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B53)</f>
-        <v>45342</v>
+        <v>45432</v>
       </c>
       <c r="K53" s="7"/>
     </row>
@@ -4518,7 +4520,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="110" t="str">
         <f>FRAs!H3</f>
-        <v>EUR1x7F_Quote_rh#0000</v>
+        <v>EUR1x7F_Quote_rh#0004</v>
       </c>
       <c r="C54" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B54)</f>
@@ -4526,7 +4528,7 @@
       </c>
       <c r="D54" s="135">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B54)</f>
-        <v>6.4000000000000005E-4</v>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="E54" s="112"/>
       <c r="F54" s="113" t="b">
@@ -4540,11 +4542,11 @@
       </c>
       <c r="I54" s="114">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B54)</f>
-        <v>42170</v>
+        <v>42275</v>
       </c>
       <c r="J54" s="115">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B54)</f>
-        <v>42353</v>
+        <v>42458</v>
       </c>
       <c r="K54" s="7"/>
     </row>
@@ -4552,7 +4554,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="116" t="str">
         <f>FRAs!H4</f>
-        <v>EUR2x8F_Quote_rh#0000</v>
+        <v>EUR2x8F_Quote_rh#0004</v>
       </c>
       <c r="C55" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B55)</f>
@@ -4560,7 +4562,7 @@
       </c>
       <c r="D55" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B55)</f>
-        <v>6.7000000000000002E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="E55" s="118"/>
       <c r="F55" s="119" t="b">
@@ -4574,11 +4576,11 @@
       </c>
       <c r="I55" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B55)</f>
-        <v>42199</v>
+        <v>42305</v>
       </c>
       <c r="J55" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B55)</f>
-        <v>42383</v>
+        <v>42488</v>
       </c>
       <c r="K55" s="7"/>
     </row>
@@ -4586,7 +4588,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="116" t="str">
         <f>FRAs!H5</f>
-        <v>EUR3x9F_Quote_rh#0000</v>
+        <v>EUR3x9F_Quote_rh#0004</v>
       </c>
       <c r="C56" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B56)</f>
@@ -4594,7 +4596,7 @@
       </c>
       <c r="D56" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B56)</f>
-        <v>7.000000000000001E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="E56" s="118"/>
       <c r="F56" s="119" t="b">
@@ -4608,11 +4610,11 @@
       </c>
       <c r="I56" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B56)</f>
-        <v>42230</v>
+        <v>42338</v>
       </c>
       <c r="J56" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B56)</f>
-        <v>42415</v>
+        <v>42521</v>
       </c>
       <c r="K56" s="7"/>
     </row>
@@ -4620,7 +4622,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="116" t="str">
         <f>FRAs!H6</f>
-        <v>EUR4x10F_Quote_rh#0000</v>
+        <v>EUR4x10F_Quote_rh#0004</v>
       </c>
       <c r="C57" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B57)</f>
@@ -4628,7 +4630,7 @@
       </c>
       <c r="D57" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B57)</f>
-        <v>7.400000000000001E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="E57" s="118"/>
       <c r="F57" s="119" t="b">
@@ -4642,11 +4644,11 @@
       </c>
       <c r="I57" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B57)</f>
-        <v>42261</v>
+        <v>42366</v>
       </c>
       <c r="J57" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B57)</f>
-        <v>42443</v>
+        <v>42549</v>
       </c>
       <c r="K57" s="7"/>
     </row>
@@ -4654,7 +4656,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="116" t="str">
         <f>FRAs!H7</f>
-        <v>EUR5x11F_Quote_rh#0000</v>
+        <v>EUR5x11F_Quote_rh#0004</v>
       </c>
       <c r="C58" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B58)</f>
@@ -4662,7 +4664,7 @@
       </c>
       <c r="D58" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B58)</f>
-        <v>7.8000000000000009E-4</v>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="119" t="b">
@@ -4676,11 +4678,11 @@
       </c>
       <c r="I58" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B58)</f>
-        <v>42291</v>
+        <v>42397</v>
       </c>
       <c r="J58" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B58)</f>
-        <v>42474</v>
+        <v>42579</v>
       </c>
       <c r="K58" s="7"/>
     </row>
@@ -4688,7 +4690,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="116" t="str">
         <f>FRAs!H8</f>
-        <v>EUR6x12F_Quote_rh#0000</v>
+        <v>EUR6x12F_Quote_rh#0004</v>
       </c>
       <c r="C59" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B59)</f>
@@ -4696,7 +4698,7 @@
       </c>
       <c r="D59" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B59)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="119" t="b">
@@ -4710,11 +4712,11 @@
       </c>
       <c r="I59" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B59)</f>
-        <v>42324</v>
+        <v>42429</v>
       </c>
       <c r="J59" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B59)</f>
-        <v>42506</v>
+        <v>42613</v>
       </c>
       <c r="K59" s="7"/>
     </row>
@@ -4722,7 +4724,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="116" t="str">
         <f>FRAs!H9</f>
-        <v>EUR7x13F_Quote_rh#0000</v>
+        <v>EUR7x13F_Quote_rh#0004</v>
       </c>
       <c r="C60" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B60)</f>
@@ -4730,7 +4732,7 @@
       </c>
       <c r="D60" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B60)</f>
-        <v>8.6000000000000009E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="E60" s="118"/>
       <c r="F60" s="119" t="b">
@@ -4744,11 +4746,11 @@
       </c>
       <c r="I60" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B60)</f>
-        <v>42352</v>
+        <v>42458</v>
       </c>
       <c r="J60" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B60)</f>
-        <v>42535</v>
+        <v>42642</v>
       </c>
       <c r="K60" s="7"/>
     </row>
@@ -4756,7 +4758,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="116" t="str">
         <f>FRAs!H10</f>
-        <v>EUR8x14F_Quote_rh#0000</v>
+        <v>EUR8x14F_Quote_rh#0004</v>
       </c>
       <c r="C61" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B61)</f>
@@ -4764,7 +4766,7 @@
       </c>
       <c r="D61" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B61)</f>
-        <v>9.1E-4</v>
+        <v>7.7000000000000018E-4</v>
       </c>
       <c r="E61" s="118"/>
       <c r="F61" s="119" t="b">
@@ -4778,11 +4780,11 @@
       </c>
       <c r="I61" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B61)</f>
-        <v>42383</v>
+        <v>42488</v>
       </c>
       <c r="J61" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B61)</f>
-        <v>42565</v>
+        <v>42671</v>
       </c>
       <c r="K61" s="7"/>
     </row>
@@ -4790,7 +4792,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="116" t="str">
         <f>FRAs!H11</f>
-        <v>EUR9x15F_Quote_rh#0000</v>
+        <v>EUR9x15F_Quote_rh#0004</v>
       </c>
       <c r="C62" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B62)</f>
@@ -4798,7 +4800,7 @@
       </c>
       <c r="D62" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B62)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>8.200000000000002E-4</v>
       </c>
       <c r="E62" s="118"/>
       <c r="F62" s="119" t="b">
@@ -4812,11 +4814,11 @@
       </c>
       <c r="I62" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B62)</f>
-        <v>42415</v>
+        <v>42520</v>
       </c>
       <c r="J62" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B62)</f>
-        <v>42597</v>
+        <v>42704</v>
       </c>
       <c r="K62" s="7"/>
     </row>
@@ -4824,7 +4826,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="116" t="str">
         <f>FRAs!H12</f>
-        <v>EUR10x16F_Quote_rh#0000</v>
+        <v>EUR10x16F_Quote_rh#0004</v>
       </c>
       <c r="C63" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B63)</f>
@@ -4832,7 +4834,7 @@
       </c>
       <c r="D63" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B63)</f>
-        <v>1.0400000000000001E-3</v>
+        <v>8.7000000000000011E-4</v>
       </c>
       <c r="E63" s="118"/>
       <c r="F63" s="119" t="b">
@@ -4846,11 +4848,11 @@
       </c>
       <c r="I63" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B63)</f>
-        <v>42443</v>
+        <v>42549</v>
       </c>
       <c r="J63" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B63)</f>
-        <v>42627</v>
+        <v>42732</v>
       </c>
       <c r="K63" s="7"/>
     </row>
@@ -4858,7 +4860,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="116" t="str">
         <f>FRAs!H13</f>
-        <v>EUR11x17F_Quote_rh#0000</v>
+        <v>EUR11x17F_Quote_rh#0004</v>
       </c>
       <c r="C64" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B64)</f>
@@ -4866,7 +4868,7 @@
       </c>
       <c r="D64" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B64)</f>
-        <v>1.1099999999999999E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="E64" s="118"/>
       <c r="F64" s="119" t="b">
@@ -4880,11 +4882,11 @@
       </c>
       <c r="I64" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B64)</f>
-        <v>42474</v>
+        <v>42579</v>
       </c>
       <c r="J64" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B64)</f>
-        <v>42657</v>
+        <v>42765</v>
       </c>
       <c r="K64" s="7"/>
     </row>
@@ -4892,7 +4894,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="116" t="str">
         <f>FRAs!H14</f>
-        <v>EUR12x18F_Quote_rh#0000</v>
+        <v>EUR12x18F_Quote_rh#0004</v>
       </c>
       <c r="C65" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B65)</f>
@@ -4900,7 +4902,7 @@
       </c>
       <c r="D65" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B65)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="E65" s="118"/>
       <c r="F65" s="119" t="b">
@@ -4914,11 +4916,11 @@
       </c>
       <c r="I65" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B65)</f>
-        <v>42506</v>
+        <v>42611</v>
       </c>
       <c r="J65" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B65)</f>
-        <v>42690</v>
+        <v>42794</v>
       </c>
       <c r="K65" s="7"/>
     </row>
@@ -4926,7 +4928,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="116" t="str">
         <f>FRAs!H15</f>
-        <v>EUR13x19F_Quote_rh#0000</v>
+        <v>EUR13x19F_Quote_rh#0004</v>
       </c>
       <c r="C66" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B66)</f>
@@ -4934,7 +4936,7 @@
       </c>
       <c r="D66" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B66)</f>
-        <v>1.2900000000000001E-3</v>
+        <v>1.1099999999999999E-3</v>
       </c>
       <c r="E66" s="118"/>
       <c r="F66" s="119" t="b">
@@ -4948,11 +4950,11 @@
       </c>
       <c r="I66" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B66)</f>
-        <v>42535</v>
+        <v>42641</v>
       </c>
       <c r="J66" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B66)</f>
-        <v>42718</v>
+        <v>42822</v>
       </c>
       <c r="K66" s="7"/>
     </row>
@@ -4960,7 +4962,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="116" t="str">
         <f>FRAs!H16</f>
-        <v>EUR14x20F_Quote_rh#0000</v>
+        <v>EUR14x20F_Quote_rh#0004</v>
       </c>
       <c r="C67" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B67)</f>
@@ -4968,7 +4970,7 @@
       </c>
       <c r="D67" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B67)</f>
-        <v>1.3999999999999998E-3</v>
+        <v>1.23E-3</v>
       </c>
       <c r="E67" s="118"/>
       <c r="F67" s="119" t="b">
@@ -4982,11 +4984,11 @@
       </c>
       <c r="I67" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B67)</f>
-        <v>42565</v>
+        <v>42671</v>
       </c>
       <c r="J67" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B67)</f>
-        <v>42751</v>
+        <v>42853</v>
       </c>
       <c r="K67" s="7"/>
     </row>
@@ -4994,7 +4996,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="116" t="str">
         <f>FRAs!H17</f>
-        <v>EUR15x21F_Quote_rh#0000</v>
+        <v>EUR15x21F_Quote_rh#0004</v>
       </c>
       <c r="C68" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B68)</f>
@@ -5002,7 +5004,7 @@
       </c>
       <c r="D68" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B68)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="E68" s="118"/>
       <c r="F68" s="119" t="b">
@@ -5016,11 +5018,11 @@
       </c>
       <c r="I68" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B68)</f>
-        <v>42597</v>
+        <v>42702</v>
       </c>
       <c r="J68" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B68)</f>
-        <v>42781</v>
+        <v>42884</v>
       </c>
       <c r="K68" s="7"/>
     </row>
@@ -5028,7 +5030,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="116" t="str">
         <f>FRAs!H18</f>
-        <v>EUR16x22F_Quote_rh#0000</v>
+        <v>EUR16x22F_Quote_rh#0004</v>
       </c>
       <c r="C69" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B69)</f>
@@ -5036,7 +5038,7 @@
       </c>
       <c r="D69" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B69)</f>
-        <v>1.6299999999999997E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="E69" s="118"/>
       <c r="F69" s="119" t="b">
@@ -5050,11 +5052,11 @@
       </c>
       <c r="I69" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B69)</f>
-        <v>42627</v>
+        <v>42732</v>
       </c>
       <c r="J69" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B69)</f>
-        <v>42808</v>
+        <v>42914</v>
       </c>
       <c r="K69" s="7"/>
     </row>
@@ -5062,7 +5064,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="116" t="str">
         <f>FRAs!H19</f>
-        <v>EUR17x23F_Quote_rh#0000</v>
+        <v>EUR17x23F_Quote_rh#0004</v>
       </c>
       <c r="C70" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B70)</f>
@@ -5070,7 +5072,7 @@
       </c>
       <c r="D70" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B70)</f>
-        <v>1.7699999999999999E-3</v>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="E70" s="118"/>
       <c r="F70" s="119" t="b">
@@ -5084,11 +5086,11 @@
       </c>
       <c r="I70" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B70)</f>
-        <v>42657</v>
+        <v>42765</v>
       </c>
       <c r="J70" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B70)</f>
-        <v>42843</v>
+        <v>42947</v>
       </c>
       <c r="K70" s="7"/>
     </row>
@@ -5096,7 +5098,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="122" t="str">
         <f>FRAs!H20</f>
-        <v>EUR18x24F_Quote_rh#0000</v>
+        <v>EUR18x24F_Quote_rh#0004</v>
       </c>
       <c r="C71" s="123" t="str">
         <f>_xll.qlRateHelperQuoteName(,B71)</f>
@@ -5104,7 +5106,7 @@
       </c>
       <c r="D71" s="131">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B71)</f>
-        <v>1.92E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="E71" s="124"/>
       <c r="F71" s="125" t="b">
@@ -5118,18 +5120,18 @@
       </c>
       <c r="I71" s="126">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B71)</f>
-        <v>42688</v>
+        <v>42794</v>
       </c>
       <c r="J71" s="127">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B71)</f>
-        <v>42870</v>
+        <v>42978</v>
       </c>
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B72" s="116" t="str">
         <f>Swaps!L5</f>
-        <v>EURAB6E1Y_Quote_rh#0000</v>
+        <v>EURAB6E1Y_Quote_rh#0005</v>
       </c>
       <c r="C72" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B72)</f>
@@ -5137,7 +5139,7 @@
       </c>
       <c r="D72" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B72)</f>
-        <v>7.2000000000000005E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="E72" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B72,Trigger)</f>
@@ -5154,18 +5156,18 @@
       </c>
       <c r="I72" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B72)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J72" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B72)</f>
-        <v>42506</v>
+        <v>42611</v>
       </c>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" s="116" t="str">
         <f>Swaps!L6</f>
-        <v>EURAB6E15M_Quote_rh#0000</v>
+        <v>EURAB6E15M_Quote_rh#0005</v>
       </c>
       <c r="C73" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B73)</f>
@@ -5173,7 +5175,7 @@
       </c>
       <c r="D73" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B73)</f>
-        <v>6.6E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="E73" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B73,Trigger)</f>
@@ -5190,18 +5192,18 @@
       </c>
       <c r="I73" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B73)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J73" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B73)</f>
-        <v>42597</v>
+        <v>42702</v>
       </c>
       <c r="L73" s="5"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" s="116" t="str">
         <f>Swaps!L7</f>
-        <v>EURAB6E18M_Quote_rh#0000</v>
+        <v>EURAB6E18M_Quote_rh#0005</v>
       </c>
       <c r="C74" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B74)</f>
@@ -5209,7 +5211,7 @@
       </c>
       <c r="D74" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B74)</f>
-        <v>8.8999999999999995E-4</v>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="E74" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B74,Trigger)</f>
@@ -5226,18 +5228,18 @@
       </c>
       <c r="I74" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B74)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J74" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B74)</f>
-        <v>42688</v>
+        <v>42794</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B75" s="116" t="str">
         <f>Swaps!L8</f>
-        <v>EURAB6E21M_Quote_rh#0000</v>
+        <v>EURAB6E21M_Quote_rh#0005</v>
       </c>
       <c r="C75" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B75)</f>
@@ -5245,7 +5247,7 @@
       </c>
       <c r="D75" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B75)</f>
-        <v>9.2000000000000003E-4</v>
+        <v>8.0000000000000015E-4</v>
       </c>
       <c r="E75" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B75,Trigger)</f>
@@ -5262,18 +5264,18 @@
       </c>
       <c r="I75" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B75)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J75" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B75)</f>
-        <v>42780</v>
+        <v>42884</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B76" s="116" t="str">
         <f>Swaps!L9</f>
-        <v>EURAB6E2Y_Quote_rh#0000</v>
+        <v>EURAB6E2Y_Quote_rh#0005</v>
       </c>
       <c r="C76" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B76)</f>
@@ -5281,7 +5283,7 @@
       </c>
       <c r="D76" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B76)</f>
-        <v>1.15E-3</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="E76" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B76,Trigger)</f>
@@ -5298,18 +5300,18 @@
       </c>
       <c r="I76" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B76)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J76" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B76)</f>
-        <v>42870</v>
+        <v>42975</v>
       </c>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B77" s="116" t="str">
         <f>Swaps!L10</f>
-        <v>EURAB6E3Y_Quote_rh#0000</v>
+        <v>EURAB6E3Y_Quote_rh#0005</v>
       </c>
       <c r="C77" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B77)</f>
@@ -5317,7 +5319,7 @@
       </c>
       <c r="D77" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B77)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="E77" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B77,Trigger)</f>
@@ -5334,18 +5336,18 @@
       </c>
       <c r="I77" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B77)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J77" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B77)</f>
-        <v>43234</v>
+        <v>43340</v>
       </c>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B78" s="116" t="str">
         <f>Swaps!L11</f>
-        <v>EURAB6E4Y_Quote_rh#0000</v>
+        <v>EURAB6E4Y_Quote_rh#0005</v>
       </c>
       <c r="C78" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B78)</f>
@@ -5353,7 +5355,7 @@
       </c>
       <c r="D78" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B78)</f>
-        <v>2.9800000000000004E-3</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="E78" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B78,Trigger)</f>
@@ -5370,18 +5372,18 @@
       </c>
       <c r="I78" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B78)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J78" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B78)</f>
-        <v>43599</v>
+        <v>43705</v>
       </c>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="116" t="str">
         <f>Swaps!L12</f>
-        <v>EURAB6E5Y_Quote_rh#0000</v>
+        <v>EURAB6E5Y_Quote_rh#0005</v>
       </c>
       <c r="C79" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B79)</f>
@@ -5389,7 +5391,7 @@
       </c>
       <c r="D79" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B79)</f>
-        <v>4.1700000000000001E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="E79" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B79,Trigger)</f>
@@ -5406,18 +5408,18 @@
       </c>
       <c r="I79" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B79)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J79" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B79)</f>
-        <v>43965</v>
+        <v>44071</v>
       </c>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="116" t="str">
         <f>Swaps!L13</f>
-        <v>EURAB6E6Y_Quote_rh#0000</v>
+        <v>EURAB6E6Y_Quote_rh#0005</v>
       </c>
       <c r="C80" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B80)</f>
@@ -5425,7 +5427,7 @@
       </c>
       <c r="D80" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B80)</f>
-        <v>5.45E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="E80" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B80,Trigger)</f>
@@ -5442,18 +5444,18 @@
       </c>
       <c r="I80" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B80)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J80" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B80)</f>
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="116" t="str">
         <f>Swaps!L14</f>
-        <v>EURAB6E7Y_Quote_rh#0000</v>
+        <v>EURAB6E7Y_Quote_rh#0005</v>
       </c>
       <c r="C81" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B81)</f>
@@ -5461,7 +5463,7 @@
       </c>
       <c r="D81" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B81)</f>
-        <v>6.7300000000000007E-3</v>
+        <v>6.4200000000000004E-3</v>
       </c>
       <c r="E81" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B81,Trigger)</f>
@@ -5478,18 +5480,18 @@
       </c>
       <c r="I81" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B81)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J81" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B81)</f>
-        <v>44697</v>
+        <v>44802</v>
       </c>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="116" t="str">
         <f>Swaps!L15</f>
-        <v>EURAB6E8Y_Quote_rh#0000</v>
+        <v>EURAB6E8Y_Quote_rh#0005</v>
       </c>
       <c r="C82" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B82)</f>
@@ -5497,7 +5499,7 @@
       </c>
       <c r="D82" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B82)</f>
-        <v>7.9099999999999986E-3</v>
+        <v>7.5100000000000002E-3</v>
       </c>
       <c r="E82" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B82,Trigger)</f>
@@ -5514,18 +5516,18 @@
       </c>
       <c r="I82" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B82)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J82" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B82)</f>
-        <v>45061</v>
+        <v>45166</v>
       </c>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="116" t="str">
         <f>Swaps!L16</f>
-        <v>EURAB6E9Y_Quote_rh#0000</v>
+        <v>EURAB6E9Y_Quote_rh#0005</v>
       </c>
       <c r="C83" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B83)</f>
@@ -5533,7 +5535,7 @@
       </c>
       <c r="D83" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B83)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="E83" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B83,Trigger)</f>
@@ -5550,18 +5552,18 @@
       </c>
       <c r="I83" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B83)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J83" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B83)</f>
-        <v>45426</v>
+        <v>45532</v>
       </c>
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="116" t="str">
         <f>Swaps!L17</f>
-        <v>EURAB6E10Y_Quote_rh#0000</v>
+        <v>EURAB6E10Y_Quote_rh#0005</v>
       </c>
       <c r="C84" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B84)</f>
@@ -5569,7 +5571,7 @@
       </c>
       <c r="D84" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B84)</f>
-        <v>9.8200000000000006E-3</v>
+        <v>9.2700000000000005E-3</v>
       </c>
       <c r="E84" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B84,Trigger)</f>
@@ -5586,18 +5588,18 @@
       </c>
       <c r="I84" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B84)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J84" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B84)</f>
-        <v>45791</v>
+        <v>45897</v>
       </c>
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="116" t="str">
         <f>Swaps!L18</f>
-        <v>EURAB6E11Y_Quote_rh#0000</v>
+        <v>EURAB6E11Y_Quote_rh#0005</v>
       </c>
       <c r="C85" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B85)</f>
@@ -5605,7 +5607,7 @@
       </c>
       <c r="D85" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B85)</f>
-        <v>1.057E-2</v>
+        <v>9.9899999999999989E-3</v>
       </c>
       <c r="E85" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B85,Trigger)</f>
@@ -5622,18 +5624,18 @@
       </c>
       <c r="I85" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B85)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J85" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B85)</f>
-        <v>46156</v>
+        <v>46262</v>
       </c>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="116" t="str">
         <f>Swaps!L19</f>
-        <v>EURAB6E12Y_Quote_rh#0000</v>
+        <v>EURAB6E12Y_Quote_rh#0005</v>
       </c>
       <c r="C86" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B86)</f>
@@ -5641,7 +5643,7 @@
       </c>
       <c r="D86" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B86)</f>
-        <v>1.1240000000000002E-2</v>
+        <v>1.0620000000000001E-2</v>
       </c>
       <c r="E86" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B86,Trigger)</f>
@@ -5658,18 +5660,18 @@
       </c>
       <c r="I86" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B86)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J86" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B86)</f>
-        <v>46521</v>
+        <v>46629</v>
       </c>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="116" t="str">
         <f>Swaps!L20</f>
-        <v>EURAB6E13Y_Quote_rh#0000</v>
+        <v>EURAB6E13Y_Quote_rh#0005</v>
       </c>
       <c r="C87" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B87)</f>
@@ -5677,7 +5679,7 @@
       </c>
       <c r="D87" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B87)</f>
-        <v>1.1779999999999999E-2</v>
+        <v>1.1120000000000001E-2</v>
       </c>
       <c r="E87" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B87,Trigger)</f>
@@ -5694,18 +5696,18 @@
       </c>
       <c r="I87" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B87)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J87" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B87)</f>
-        <v>46888</v>
+        <v>46993</v>
       </c>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="116" t="str">
         <f>Swaps!L21</f>
-        <v>EURAB6E14Y_Quote_rh#0000</v>
+        <v>EURAB6E14Y_Quote_rh#0005</v>
       </c>
       <c r="C88" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B88)</f>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="D88" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B88)</f>
-        <v>1.225E-2</v>
+        <v>1.157E-2</v>
       </c>
       <c r="E88" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B88,Trigger)</f>
@@ -5730,18 +5732,18 @@
       </c>
       <c r="I88" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B88)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J88" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B88)</f>
-        <v>47252</v>
+        <v>47358</v>
       </c>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="116" t="str">
         <f>Swaps!L22</f>
-        <v>EURAB6E15Y_Quote_rh#0000</v>
+        <v>EURAB6E15Y_Quote_rh#0005</v>
       </c>
       <c r="C89" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B89)</f>
@@ -5749,7 +5751,7 @@
       </c>
       <c r="D89" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B89)</f>
-        <v>1.2659999999999999E-2</v>
+        <v>1.196E-2</v>
       </c>
       <c r="E89" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B89,Trigger)</f>
@@ -5766,18 +5768,18 @@
       </c>
       <c r="I89" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B89)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J89" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B89)</f>
-        <v>47617</v>
+        <v>47723</v>
       </c>
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="116" t="str">
         <f>Swaps!L23</f>
-        <v>EURAB6E16Y_Quote_rh#0000</v>
+        <v>EURAB6E16Y_Quote_rh#0005</v>
       </c>
       <c r="C90" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B90)</f>
@@ -5785,7 +5787,7 @@
       </c>
       <c r="D90" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B90)</f>
-        <v>1.299E-2</v>
+        <v>1.2270000000000001E-2</v>
       </c>
       <c r="E90" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B90,Trigger)</f>
@@ -5802,18 +5804,18 @@
       </c>
       <c r="I90" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B90)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J90" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B90)</f>
-        <v>47982</v>
+        <v>48088</v>
       </c>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="116" t="str">
         <f>Swaps!L24</f>
-        <v>EURAB6E17Y_Quote_rh#0000</v>
+        <v>EURAB6E17Y_Quote_rh#0005</v>
       </c>
       <c r="C91" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B91)</f>
@@ -5821,7 +5823,7 @@
       </c>
       <c r="D91" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B91)</f>
-        <v>1.3269999999999999E-2</v>
+        <v>1.252E-2</v>
       </c>
       <c r="E91" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B91,Trigger)</f>
@@ -5838,18 +5840,18 @@
       </c>
       <c r="I91" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B91)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J91" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B91)</f>
-        <v>48348</v>
+        <v>48456</v>
       </c>
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="116" t="str">
         <f>Swaps!L25</f>
-        <v>EURAB6E18Y_Quote_rh#0000</v>
+        <v>EURAB6E18Y_Quote_rh#0005</v>
       </c>
       <c r="C92" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B92)</f>
@@ -5857,7 +5859,7 @@
       </c>
       <c r="D92" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B92)</f>
-        <v>1.349E-2</v>
+        <v>1.272E-2</v>
       </c>
       <c r="E92" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B92,Trigger)</f>
@@ -5874,18 +5876,18 @@
       </c>
       <c r="I92" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B92)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J92" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B92)</f>
-        <v>48715</v>
+        <v>48820</v>
       </c>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="116" t="str">
         <f>Swaps!L26</f>
-        <v>EURAB6E19Y_Quote_rh#0000</v>
+        <v>EURAB6E19Y_Quote_rh#0005</v>
       </c>
       <c r="C93" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B93)</f>
@@ -5893,7 +5895,7 @@
       </c>
       <c r="D93" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B93)</f>
-        <v>1.367E-2</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="E93" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B93,Trigger)</f>
@@ -5910,18 +5912,18 @@
       </c>
       <c r="I93" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B93)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J93" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B93)</f>
-        <v>49079</v>
+        <v>49184</v>
       </c>
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="116" t="str">
         <f>Swaps!L27</f>
-        <v>EURAB6E20Y_Quote_rh#0000</v>
+        <v>EURAB6E20Y_Quote_rh#0005</v>
       </c>
       <c r="C94" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B94)</f>
@@ -5929,7 +5931,7 @@
       </c>
       <c r="D94" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B94)</f>
-        <v>1.3809999999999999E-2</v>
+        <v>1.3010000000000001E-2</v>
       </c>
       <c r="E94" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B94,Trigger)</f>
@@ -5946,18 +5948,18 @@
       </c>
       <c r="I94" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B94)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J94" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B94)</f>
-        <v>49443</v>
+        <v>49549</v>
       </c>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="116" t="str">
         <f>Swaps!L28</f>
-        <v>EURAB6E21Y_Quote_rh#0000</v>
+        <v>EURAB6E21Y_Quote_rh#0005</v>
       </c>
       <c r="C95" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B95)</f>
@@ -5965,7 +5967,7 @@
       </c>
       <c r="D95" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B95)</f>
-        <v>1.3919999999999998E-2</v>
+        <v>1.311E-2</v>
       </c>
       <c r="E95" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B95,Trigger)</f>
@@ -5982,18 +5984,18 @@
       </c>
       <c r="I95" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B95)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J95" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B95)</f>
-        <v>49809</v>
+        <v>49915</v>
       </c>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="116" t="str">
         <f>Swaps!L29</f>
-        <v>EURAB6E22Y_Quote_rh#0000</v>
+        <v>EURAB6E22Y_Quote_rh#0005</v>
       </c>
       <c r="C96" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B96)</f>
@@ -6001,7 +6003,7 @@
       </c>
       <c r="D96" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B96)</f>
-        <v>1.3990000000000001E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="E96" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B96,Trigger)</f>
@@ -6018,18 +6020,18 @@
       </c>
       <c r="I96" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B96)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J96" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B96)</f>
-        <v>50174</v>
+        <v>50280</v>
       </c>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="116" t="str">
         <f>Swaps!L30</f>
-        <v>EURAB6E23Y_Quote_rh#0000</v>
+        <v>EURAB6E23Y_Quote_rh#0005</v>
       </c>
       <c r="C97" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B97)</f>
@@ -6037,7 +6039,7 @@
       </c>
       <c r="D97" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B97)</f>
-        <v>1.405E-2</v>
+        <v>1.325E-2</v>
       </c>
       <c r="E97" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B97,Trigger)</f>
@@ -6054,18 +6056,18 @@
       </c>
       <c r="I97" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B97)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J97" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B97)</f>
-        <v>50539</v>
+        <v>50647</v>
       </c>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="116" t="str">
         <f>Swaps!L31</f>
-        <v>EURAB6E24Y_Quote_rh#0000</v>
+        <v>EURAB6E24Y_Quote_rh#0005</v>
       </c>
       <c r="C98" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B98)</f>
@@ -6073,7 +6075,7 @@
       </c>
       <c r="D98" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B98)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>1.329E-2</v>
       </c>
       <c r="E98" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B98,Trigger)</f>
@@ -6090,18 +6092,18 @@
       </c>
       <c r="I98" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B98)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J98" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B98)</f>
-        <v>50906</v>
+        <v>51011</v>
       </c>
       <c r="L98" s="5"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="116" t="str">
         <f>Swaps!L32</f>
-        <v>EURAB6E25Y_Quote_rh#0000</v>
+        <v>EURAB6E25Y_Quote_rh#0005</v>
       </c>
       <c r="C99" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B99)</f>
@@ -6109,7 +6111,7 @@
       </c>
       <c r="D99" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B99)</f>
-        <v>1.4140000000000002E-2</v>
+        <v>1.3340000000000001E-2</v>
       </c>
       <c r="E99" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B99,Trigger)</f>
@@ -6126,18 +6128,18 @@
       </c>
       <c r="I99" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B99)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J99" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B99)</f>
-        <v>51270</v>
+        <v>51376</v>
       </c>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="116" t="str">
         <f>Swaps!L33</f>
-        <v>EURAB6E26Y_Quote_rh#0000</v>
+        <v>EURAB6E26Y_Quote_rh#0005</v>
       </c>
       <c r="C100" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B100)</f>
@@ -6145,7 +6147,7 @@
       </c>
       <c r="D100" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B100)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.3380000000000001E-2</v>
       </c>
       <c r="E100" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B100,Trigger)</f>
@@ -6162,18 +6164,18 @@
       </c>
       <c r="I100" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B100)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J100" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B100)</f>
-        <v>51635</v>
+        <v>51741</v>
       </c>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="116" t="str">
         <f>Swaps!L34</f>
-        <v>EURAB6E27Y_Quote_rh#0000</v>
+        <v>EURAB6E27Y_Quote_rh#0005</v>
       </c>
       <c r="C101" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B101)</f>
@@ -6181,7 +6183,7 @@
       </c>
       <c r="D101" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B101)</f>
-        <v>1.423E-2</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="E101" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B101,Trigger)</f>
@@ -6198,18 +6200,18 @@
       </c>
       <c r="I101" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B101)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J101" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B101)</f>
-        <v>52000</v>
+        <v>52106</v>
       </c>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="116" t="str">
         <f>Swaps!L35</f>
-        <v>EURAB6E28Y_Quote_rh#0000</v>
+        <v>EURAB6E28Y_Quote_rh#0005</v>
       </c>
       <c r="C102" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B102)</f>
@@ -6217,7 +6219,7 @@
       </c>
       <c r="D102" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B102)</f>
-        <v>1.427E-2</v>
+        <v>1.3469999999999999E-2</v>
       </c>
       <c r="E102" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B102,Trigger)</f>
@@ -6234,18 +6236,18 @@
       </c>
       <c r="I102" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B102)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J102" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B102)</f>
-        <v>52365</v>
+        <v>52471</v>
       </c>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="116" t="str">
         <f>Swaps!L36</f>
-        <v>EURAB6E29Y_Quote_rh#0000</v>
+        <v>EURAB6E29Y_Quote_rh#0005</v>
       </c>
       <c r="C103" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B103)</f>
@@ -6253,7 +6255,7 @@
       </c>
       <c r="D103" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B103)</f>
-        <v>1.431E-2</v>
+        <v>1.3509999999999999E-2</v>
       </c>
       <c r="E103" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B103,Trigger)</f>
@@ -6270,18 +6272,18 @@
       </c>
       <c r="I103" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B103)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J103" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B103)</f>
-        <v>52733</v>
+        <v>52838</v>
       </c>
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="116" t="str">
         <f>Swaps!L37</f>
-        <v>EURAB6E30Y_Quote_rh#0000</v>
+        <v>EURAB6E30Y_Quote_rh#0005</v>
       </c>
       <c r="C104" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B104)</f>
@@ -6289,7 +6291,7 @@
       </c>
       <c r="D104" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B104)</f>
-        <v>1.4339999999999999E-2</v>
+        <v>1.3540000000000002E-2</v>
       </c>
       <c r="E104" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B104,Trigger)</f>
@@ -6306,18 +6308,18 @@
       </c>
       <c r="I104" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B104)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J104" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B104)</f>
-        <v>53097</v>
+        <v>53202</v>
       </c>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="116" t="str">
         <f>Swaps!L38</f>
-        <v>EURAB6E35Y_Quote_rh#0000</v>
+        <v>EURAB6E35Y_Quote_rh#0005</v>
       </c>
       <c r="C105" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B105)</f>
@@ -6325,7 +6327,7 @@
       </c>
       <c r="D105" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B105)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>1.363E-2</v>
       </c>
       <c r="E105" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B105,Trigger)</f>
@@ -6342,18 +6344,18 @@
       </c>
       <c r="I105" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B105)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J105" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B105)</f>
-        <v>54924</v>
+        <v>55029</v>
       </c>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="116" t="str">
         <f>Swaps!L39</f>
-        <v>EURAB6E40Y_Quote_rh#0000</v>
+        <v>EURAB6E40Y_Quote_rh#0005</v>
       </c>
       <c r="C106" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B106)</f>
@@ -6361,7 +6363,7 @@
       </c>
       <c r="D106" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B106)</f>
-        <v>1.439E-2</v>
+        <v>1.362E-2</v>
       </c>
       <c r="E106" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B106,Trigger)</f>
@@ -6378,18 +6380,18 @@
       </c>
       <c r="I106" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B106)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J106" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B106)</f>
-        <v>56748</v>
+        <v>56856</v>
       </c>
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="116" t="str">
         <f>Swaps!L40</f>
-        <v>EURAB6E50Y_Quote_rh#0000</v>
+        <v>EURAB6E50Y_Quote_rh#0005</v>
       </c>
       <c r="C107" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B107)</f>
@@ -6397,7 +6399,7 @@
       </c>
       <c r="D107" s="130">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B107)</f>
-        <v>1.391E-2</v>
+        <v>1.3180000000000001E-2</v>
       </c>
       <c r="E107" s="118" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B107,Trigger)</f>
@@ -6414,18 +6416,18 @@
       </c>
       <c r="I107" s="120">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B107)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J107" s="121">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B107)</f>
-        <v>60401</v>
+        <v>60507</v>
       </c>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="122" t="str">
         <f>Swaps!L41</f>
-        <v>EURAB6E60Y_Quote_rh#0000</v>
+        <v>EURAB6E60Y_Quote_rh#0005</v>
       </c>
       <c r="C108" s="123" t="str">
         <f>_xll.qlRateHelperQuoteName(,B108)</f>
@@ -6433,7 +6435,7 @@
       </c>
       <c r="D108" s="131">
         <f>_xll.qlRateHelperQuoteValue(Trigger,$B108)</f>
-        <v>1.376E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="E108" s="124" t="e">
         <f ca="1">_xll.qlSwapRateHelperSpread($B108,Trigger)</f>
@@ -6450,11 +6452,11 @@
       </c>
       <c r="I108" s="126">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$B108)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J108" s="127">
         <f>_xll.qlRateHelperLatestDate(Trigger,$B108)</f>
-        <v>64053</v>
+        <v>64159</v>
       </c>
       <c r="L108" s="5"/>
     </row>
@@ -6555,11 +6557,11 @@
       </c>
       <c r="H2" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D2)</f>
-        <v>42136</v>
+        <v>42242</v>
       </c>
       <c r="I2" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D2)</f>
-        <v>42137</v>
+        <v>42243</v>
       </c>
       <c r="J2" s="5">
         <v>0.05</v>
@@ -6567,7 +6569,7 @@
       <c r="L2" s="61"/>
       <c r="M2" s="62" t="str">
         <f t="array" ref="M2:M126">_xll.ohFilter(RateHelpers,RateHelpersIncluded)</f>
-        <v>EUROND_Quote_rh#0000</v>
+        <v>EUROND_Quote_rh#0004</v>
       </c>
       <c r="N2" s="134"/>
       <c r="O2" s="62"/>
@@ -6604,18 +6606,18 @@
       </c>
       <c r="H3" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D3)</f>
-        <v>42137</v>
+        <v>42243</v>
       </c>
       <c r="I3" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D3)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="J3" s="5">
         <v>5.000000000000409E-2</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="62" t="str">
-        <v>EURTND_Quote_rh#0000</v>
+        <v>EURTND_Quote_rh#0004</v>
       </c>
       <c r="N3" s="134"/>
       <c r="O3" s="62"/>
@@ -6652,18 +6654,18 @@
       </c>
       <c r="H4" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D4)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I4" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D4)</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="J4" s="5">
-        <v>5.0000000000019258E-2</v>
+        <v>5.0000000000014234E-2</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="62" t="str">
-        <v>EURSND_Quote_rh#0000</v>
+        <v>EURSND_Quote_rh#0004</v>
       </c>
       <c r="N4" s="134"/>
       <c r="O4" s="62"/>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="F5" s="17">
         <f>_xll.qlRateHelperRate(,$D5)</f>
-        <v>-1.1100000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="G5" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -6700,18 +6702,18 @@
       </c>
       <c r="H5" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D5)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I5" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D5)</f>
-        <v>42145</v>
+        <v>42251</v>
       </c>
       <c r="J5" s="5">
-        <v>5.0000000000113259E-2</v>
+        <v>5.0000000000023311E-2</v>
       </c>
       <c r="L5" s="61"/>
       <c r="M5" s="62" t="str">
-        <v>EURSWD_Quote_rh#0000</v>
+        <v>EURSWD_Quote_rh#0004</v>
       </c>
       <c r="N5" s="134"/>
       <c r="O5" s="62"/>
@@ -6741,7 +6743,7 @@
       </c>
       <c r="F6" s="17">
         <f>_xll.qlRateHelperRate(,$D6)</f>
-        <v>-4.8000000000000001E-4</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="G6" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -6749,18 +6751,18 @@
       </c>
       <c r="H6" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D6)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I6" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D6)</f>
-        <v>42170</v>
+        <v>42275</v>
       </c>
       <c r="J6" s="5">
-        <v>5.0000000000505009E-2</v>
+        <v>5.0000000000077524E-2</v>
       </c>
       <c r="L6" s="61"/>
       <c r="M6" s="62" t="str">
-        <v>EUR1MD_Quote_rh#0000</v>
+        <v>EUR1MD_Quote_rh#0004</v>
       </c>
       <c r="N6" s="134"/>
       <c r="O6" s="62"/>
@@ -6785,7 +6787,7 @@
       </c>
       <c r="F7" s="17">
         <f>_xll.qlRateHelperRate(,$D7)</f>
-        <v>-2.7999999999999998E-4</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="G7" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -6793,18 +6795,18 @@
       </c>
       <c r="H7" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D7)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I7" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D7)</f>
-        <v>42199</v>
+        <v>42305</v>
       </c>
       <c r="J7" s="5">
-        <v>5.0000000000958694E-2</v>
+        <v>5.0000000000144998E-2</v>
       </c>
       <c r="L7" s="61"/>
       <c r="M7" s="62" t="str">
-        <v>EUR2MD_Quote_rh#0000</v>
+        <v>EUR2MD_Quote_rh#0004</v>
       </c>
       <c r="N7" s="134"/>
       <c r="O7" s="62"/>
@@ -6829,7 +6831,7 @@
       </c>
       <c r="F8" s="17">
         <f>_xll.qlRateHelperRate(,$D8)</f>
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G8" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -6837,18 +6839,18 @@
       </c>
       <c r="H8" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D8)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I8" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D8)</f>
-        <v>42261</v>
+        <v>42366</v>
       </c>
       <c r="J8" s="5">
-        <v>5.0000000001928474E-2</v>
+        <v>5.0000000000282541E-2</v>
       </c>
       <c r="L8" s="61"/>
       <c r="M8" s="62" t="str">
-        <v>EUR3MD_Quote_rh#0000</v>
+        <v>EUR3MD_Quote_rh#0004</v>
       </c>
       <c r="N8" s="134"/>
       <c r="O8" s="62"/>
@@ -6871,7 +6873,7 @@
       </c>
       <c r="F9" s="17">
         <f>_xll.qlRateHelperRate(,$D9)</f>
-        <v>-8.9999999999999992E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="G9" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -6879,18 +6881,18 @@
       </c>
       <c r="H9" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D9)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I9" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D9)</f>
-        <v>42291</v>
+        <v>42397</v>
       </c>
       <c r="J9" s="5">
-        <v>5.0000000002397418E-2</v>
+        <v>5.0000000000352408E-2</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="62" t="str">
-        <v>EUR4MD_Quote_rh#0000</v>
+        <v>EUR4MD_Quote_rh#0004</v>
       </c>
       <c r="N9" s="134"/>
       <c r="O9" s="62"/>
@@ -6913,7 +6915,7 @@
       </c>
       <c r="F10" s="17">
         <f>_xll.qlRateHelperRate(,$D10)</f>
-        <v>5.9999999999999995E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="G10" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -6921,18 +6923,18 @@
       </c>
       <c r="H10" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D10)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I10" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D10)</f>
-        <v>42324</v>
+        <v>42429</v>
       </c>
       <c r="J10" s="5">
-        <v>5.0000000002913089E-2</v>
+        <v>5.0000000000424705E-2</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="62" t="str">
-        <v>EUR5MD_Quote_rh#0000</v>
+        <v>EUR5MD_Quote_rh#0004</v>
       </c>
       <c r="N10" s="134"/>
       <c r="O10" s="62"/>
@@ -6955,7 +6957,7 @@
       </c>
       <c r="F11" s="17">
         <f>_xll.qlRateHelperRate(,$D11)</f>
-        <v>8.1000000000000006E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="G11" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -6963,18 +6965,18 @@
       </c>
       <c r="H11" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D11)</f>
-        <v>42324</v>
+        <v>42429</v>
       </c>
       <c r="I11" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D11)</f>
-        <v>42506</v>
+        <v>42613</v>
       </c>
       <c r="J11" s="5">
-        <v>5.0000000005757196E-2</v>
+        <v>5.0000000000840449E-2</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="62" t="str">
-        <v>EUR6MD_Quote_rh#0000</v>
+        <v>EUR6MD_Quote_rh#0004</v>
       </c>
       <c r="N11" s="134"/>
       <c r="O11" s="62"/>
@@ -6997,7 +6999,7 @@
       </c>
       <c r="F12" s="17">
         <f>_xll.qlRateHelperRate(,$D12)</f>
-        <v>8.6000000000000009E-4</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="G12" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -7005,18 +7007,18 @@
       </c>
       <c r="H12" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D12)</f>
-        <v>42352</v>
+        <v>42458</v>
       </c>
       <c r="I12" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D12)</f>
-        <v>42535</v>
+        <v>42642</v>
       </c>
       <c r="J12" s="5">
-        <v>5.0000000006210313E-2</v>
+        <v>5.0000000000905917E-2</v>
       </c>
       <c r="L12" s="61"/>
       <c r="M12" s="62" t="str">
-        <v>EUR6x12F_Quote_rh#0000</v>
+        <v>EUR6x12F_Quote_rh#0004</v>
       </c>
       <c r="N12" s="134"/>
       <c r="O12" s="62"/>
@@ -7039,7 +7041,7 @@
       </c>
       <c r="F13" s="17">
         <f>_xll.qlRateHelperRate(,$D13)</f>
-        <v>9.1E-4</v>
+        <v>7.7000000000000018E-4</v>
       </c>
       <c r="G13" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -7047,18 +7049,18 @@
       </c>
       <c r="H13" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D13)</f>
-        <v>42383</v>
+        <v>42488</v>
       </c>
       <c r="I13" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D13)</f>
-        <v>42565</v>
+        <v>42671</v>
       </c>
       <c r="J13" s="5">
-        <v>5.0000000006679E-2</v>
+        <v>5.0000000000971323E-2</v>
       </c>
       <c r="L13" s="61"/>
       <c r="M13" s="62" t="str">
-        <v>EUR7x13F_Quote_rh#0000</v>
+        <v>EUR7x13F_Quote_rh#0004</v>
       </c>
       <c r="N13" s="134"/>
       <c r="O13" s="62"/>
@@ -7081,7 +7083,7 @@
       </c>
       <c r="F14" s="17">
         <f>_xll.qlRateHelperRate(,$D14)</f>
-        <v>9.7000000000000005E-4</v>
+        <v>8.200000000000002E-4</v>
       </c>
       <c r="G14" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -7089,17 +7091,17 @@
       </c>
       <c r="H14" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D14)</f>
-        <v>42415</v>
+        <v>42520</v>
       </c>
       <c r="I14" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D14)</f>
-        <v>42597</v>
+        <v>42704</v>
       </c>
       <c r="J14" s="5">
-        <v>5.0000000007178975E-2</v>
+        <v>5.0000000001045847E-2</v>
       </c>
       <c r="M14" s="62" t="str">
-        <v>EUR8x14F_Quote_rh#0000</v>
+        <v>EUR8x14F_Quote_rh#0004</v>
       </c>
       <c r="N14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -7125,7 +7127,7 @@
       </c>
       <c r="F15" s="17">
         <f>_xll.qlRateHelperRate(,$D15)</f>
-        <v>1.0400000000000001E-3</v>
+        <v>8.7000000000000011E-4</v>
       </c>
       <c r="G15" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -7133,18 +7135,18 @@
       </c>
       <c r="H15" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D15)</f>
-        <v>42443</v>
+        <v>42549</v>
       </c>
       <c r="I15" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D15)</f>
-        <v>42627</v>
+        <v>42732</v>
       </c>
       <c r="J15" s="5">
-        <v>5.0000000007647698E-2</v>
+        <v>5.0000000001109039E-2</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="62" t="str">
-        <v>EUR9x15F_Quote_rh#0000</v>
+        <v>EUR9x15F_Quote_rh#0004</v>
       </c>
       <c r="N15" s="134"/>
       <c r="O15" s="62"/>
@@ -7167,7 +7169,7 @@
       </c>
       <c r="F16" s="17">
         <f>_xll.qlRateHelperRate(,$D16)</f>
-        <v>1.1099999999999999E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="G16" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -7175,18 +7177,18 @@
       </c>
       <c r="H16" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D16)</f>
-        <v>42474</v>
+        <v>42579</v>
       </c>
       <c r="I16" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D16)</f>
-        <v>42657</v>
+        <v>42765</v>
       </c>
       <c r="J16" s="5">
-        <v>5.0000000008116399E-2</v>
+        <v>5.0000000001183563E-2</v>
       </c>
       <c r="L16" s="61"/>
       <c r="M16" s="62" t="str">
-        <v>EUR10x16F_Quote_rh#0000</v>
+        <v>EUR10x16F_Quote_rh#0004</v>
       </c>
       <c r="N16" s="134"/>
       <c r="O16" s="136"/>
@@ -7209,7 +7211,7 @@
       </c>
       <c r="F17" s="17">
         <f>_xll.qlRateHelperRate(,$D17)</f>
-        <v>1.1999999999999999E-3</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="G17" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -7217,18 +7219,18 @@
       </c>
       <c r="H17" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D17)</f>
-        <v>42506</v>
+        <v>42611</v>
       </c>
       <c r="I17" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D17)</f>
-        <v>42690</v>
+        <v>42794</v>
       </c>
       <c r="J17" s="5">
-        <v>5.0000000008631966E-2</v>
+        <v>5.0000000001249024E-2</v>
       </c>
       <c r="L17" s="132"/>
       <c r="M17" s="62" t="str">
-        <v>EUR11x17F_Quote_rh#0000</v>
+        <v>EUR11x17F_Quote_rh#0004</v>
       </c>
       <c r="N17" s="134"/>
       <c r="O17" s="136"/>
@@ -7251,7 +7253,7 @@
       </c>
       <c r="F18" s="17">
         <f>_xll.qlRateHelperRate(,$D18)</f>
-        <v>1.5199999999999999E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="G18" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -7259,18 +7261,18 @@
       </c>
       <c r="H18" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D18)</f>
-        <v>42597</v>
+        <v>42702</v>
       </c>
       <c r="I18" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D18)</f>
-        <v>42781</v>
+        <v>42884</v>
       </c>
       <c r="J18" s="5">
-        <v>5.0000000010053627E-2</v>
+        <v>5.0000000001452202E-2</v>
       </c>
       <c r="L18" s="132"/>
       <c r="M18" s="62" t="str">
-        <v>EUR12x18F_Quote_rh#0000</v>
+        <v>EUR12x18F_Quote_rh#0004</v>
       </c>
       <c r="N18" s="134"/>
       <c r="O18" s="136"/>
@@ -7293,7 +7295,7 @@
       </c>
       <c r="F19" s="17">
         <f>_xll.qlRateHelperRate(,$D19)</f>
-        <v>1.15E-3</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="G19" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -7301,18 +7303,18 @@
       </c>
       <c r="H19" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D19)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I19" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D19)</f>
-        <v>42870</v>
+        <v>42975</v>
       </c>
       <c r="J19" s="5">
-        <v>5.0000000011443974E-2</v>
+        <v>5.0000000001657587E-2</v>
       </c>
       <c r="L19" s="132"/>
       <c r="M19" s="62" t="str">
-        <v>EUR15x21F_Quote_rh#0000</v>
+        <v>EUR15x21F_Quote_rh#0004</v>
       </c>
       <c r="N19" s="134"/>
       <c r="O19" s="136"/>
@@ -7335,7 +7337,7 @@
       </c>
       <c r="F20" s="17">
         <f>_xll.qlRateHelperRate(,$D20)</f>
-        <v>1.9500000000000001E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="G20" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -7343,18 +7345,18 @@
       </c>
       <c r="H20" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D20)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I20" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D20)</f>
-        <v>43234</v>
+        <v>43340</v>
       </c>
       <c r="J20" s="5">
-        <v>5.0000000017130342E-2</v>
+        <v>5.0000000002481386E-2</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="62" t="str">
-        <v>EURAB6E2Y_Quote_rh#0000</v>
+        <v>EURAB6E2Y_Quote_rh#0005</v>
       </c>
       <c r="N20" s="137"/>
       <c r="O20" s="136"/>
@@ -7377,7 +7379,7 @@
       </c>
       <c r="F21" s="17">
         <f>_xll.qlRateHelperRate(,$D21)</f>
-        <v>2.9800000000000004E-3</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="G21" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -7385,18 +7387,18 @@
       </c>
       <c r="H21" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D21)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I21" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D21)</f>
-        <v>43599</v>
+        <v>43705</v>
       </c>
       <c r="J21" s="5">
-        <v>5.0000000022832315E-2</v>
+        <v>5.0000000003305185E-2</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="62" t="str">
-        <v>EURAB6E3Y_Quote_rh#0000</v>
+        <v>EURAB6E3Y_Quote_rh#0005</v>
       </c>
       <c r="N21" s="134"/>
       <c r="O21" s="136"/>
@@ -7419,7 +7421,7 @@
       </c>
       <c r="F22" s="17">
         <f>_xll.qlRateHelperRate(,$D22)</f>
-        <v>4.1700000000000001E-3</v>
+        <v>4.0200000000000001E-3</v>
       </c>
       <c r="G22" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -7427,18 +7429,18 @@
       </c>
       <c r="H22" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D22)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I22" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D22)</f>
-        <v>43965</v>
+        <v>44071</v>
       </c>
       <c r="J22" s="5">
-        <v>5.0000000028549901E-2</v>
+        <v>5.0000000004131233E-2</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="62" t="str">
-        <v>EURAB6E4Y_Quote_rh#0000</v>
+        <v>EURAB6E4Y_Quote_rh#0005</v>
       </c>
       <c r="N22" s="137"/>
       <c r="O22" s="62"/>
@@ -7461,7 +7463,7 @@
       </c>
       <c r="F23" s="17">
         <f>_xll.qlRateHelperRate(,$D23)</f>
-        <v>5.45E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="G23" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -7469,18 +7471,18 @@
       </c>
       <c r="H23" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D23)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I23" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D23)</f>
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="J23" s="5">
-        <v>5.0000000034251875E-2</v>
+        <v>5.0000000004959515E-2</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="62" t="str">
-        <v>EURAB6E5Y_Quote_rh#0000</v>
+        <v>EURAB6E5Y_Quote_rh#0005</v>
       </c>
       <c r="N23" s="137"/>
       <c r="O23" s="62"/>
@@ -7503,7 +7505,7 @@
       </c>
       <c r="F24" s="17">
         <f>_xll.qlRateHelperRate(,$D24)</f>
-        <v>6.7300000000000007E-3</v>
+        <v>6.4200000000000004E-3</v>
       </c>
       <c r="G24" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -7511,18 +7513,18 @@
       </c>
       <c r="H24" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D24)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I24" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D24)</f>
-        <v>44697</v>
+        <v>44802</v>
       </c>
       <c r="J24" s="5">
-        <v>5.0000000039985087E-2</v>
+        <v>5.0000000005781017E-2</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="62" t="str">
-        <v>EURAB6E6Y_Quote_rh#0000</v>
+        <v>EURAB6E6Y_Quote_rh#0005</v>
       </c>
       <c r="N24" s="137"/>
       <c r="O24" s="62"/>
@@ -7545,7 +7547,7 @@
       </c>
       <c r="F25" s="17">
         <f>_xll.qlRateHelperRate(,$D25)</f>
-        <v>7.9099999999999986E-3</v>
+        <v>7.5100000000000002E-3</v>
       </c>
       <c r="G25" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -7553,18 +7555,18 @@
       </c>
       <c r="H25" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D25)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I25" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D25)</f>
-        <v>45061</v>
+        <v>45166</v>
       </c>
       <c r="J25" s="5">
-        <v>5.0000000045671421E-2</v>
+        <v>5.0000000006602527E-2</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="62" t="str">
-        <v>EURAB6E7Y_Quote_rh#0000</v>
+        <v>EURAB6E7Y_Quote_rh#0005</v>
       </c>
       <c r="N25" s="137"/>
       <c r="O25" s="62"/>
@@ -7587,7 +7589,7 @@
       </c>
       <c r="F26" s="17">
         <f>_xll.qlRateHelperRate(,$D26)</f>
-        <v>8.9499999999999996E-3</v>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="G26" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -7595,18 +7597,18 @@
       </c>
       <c r="H26" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D26)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I26" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D26)</f>
-        <v>45426</v>
+        <v>45532</v>
       </c>
       <c r="J26" s="5">
-        <v>5.0000000051373381E-2</v>
+        <v>5.0000000007428554E-2</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="62" t="str">
-        <v>EURAB6E8Y_Quote_rh#0000</v>
+        <v>EURAB6E8Y_Quote_rh#0005</v>
       </c>
       <c r="N26" s="137"/>
       <c r="O26" s="62"/>
@@ -7629,7 +7631,7 @@
       </c>
       <c r="F27" s="17">
         <f>_xll.qlRateHelperRate(,$D27)</f>
-        <v>9.8200000000000006E-3</v>
+        <v>9.2700000000000005E-3</v>
       </c>
       <c r="G27" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -7637,18 +7639,18 @@
       </c>
       <c r="H27" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D27)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I27" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D27)</f>
-        <v>45791</v>
+        <v>45897</v>
       </c>
       <c r="J27" s="5">
-        <v>5.0000000057075347E-2</v>
+        <v>5.0000000008252325E-2</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="62" t="str">
-        <v>EURAB6E9Y_Quote_rh#0000</v>
+        <v>EURAB6E9Y_Quote_rh#0005</v>
       </c>
       <c r="N27" s="137"/>
       <c r="O27" s="62"/>
@@ -7671,7 +7673,7 @@
       </c>
       <c r="F28" s="17">
         <f>_xll.qlRateHelperRate(,$D28)</f>
-        <v>1.057E-2</v>
+        <v>9.9899999999999989E-3</v>
       </c>
       <c r="G28" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -7679,18 +7681,18 @@
       </c>
       <c r="H28" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D28)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I28" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D28)</f>
-        <v>46156</v>
+        <v>46262</v>
       </c>
       <c r="J28" s="5">
-        <v>5.0000000062777321E-2</v>
+        <v>5.000000000907609E-2</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="62" t="str">
-        <v>EURAB6E10Y_Quote_rh#0000</v>
+        <v>EURAB6E10Y_Quote_rh#0005</v>
       </c>
       <c r="N28" s="137"/>
       <c r="O28" s="62"/>
@@ -7713,7 +7715,7 @@
       </c>
       <c r="F29" s="17">
         <f>_xll.qlRateHelperRate(,$D29)</f>
-        <v>1.1240000000000002E-2</v>
+        <v>1.0620000000000001E-2</v>
       </c>
       <c r="G29" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -7721,18 +7723,18 @@
       </c>
       <c r="H29" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D29)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I29" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D29)</f>
-        <v>46521</v>
+        <v>46629</v>
       </c>
       <c r="J29" s="5">
-        <v>5.0000000068479301E-2</v>
+        <v>5.0000000009904372E-2</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="62" t="str">
-        <v>EURAB6E11Y_Quote_rh#0000</v>
+        <v>EURAB6E11Y_Quote_rh#0005</v>
       </c>
       <c r="N29" s="137"/>
       <c r="O29" s="62"/>
@@ -7755,7 +7757,7 @@
       </c>
       <c r="F30" s="17">
         <f>_xll.qlRateHelperRate(,$D30)</f>
-        <v>1.1779999999999999E-2</v>
+        <v>1.1120000000000001E-2</v>
       </c>
       <c r="G30" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -7763,18 +7765,18 @@
       </c>
       <c r="H30" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D30)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I30" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D30)</f>
-        <v>46888</v>
+        <v>46993</v>
       </c>
       <c r="J30" s="5">
-        <v>5.0000000074212535E-2</v>
+        <v>5.0000000010725867E-2</v>
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="62" t="str">
-        <v>EURAB6E12Y_Quote_rh#0000</v>
+        <v>EURAB6E12Y_Quote_rh#0005</v>
       </c>
       <c r="N30" s="137"/>
       <c r="O30" s="62"/>
@@ -7797,7 +7799,7 @@
       </c>
       <c r="F31" s="17">
         <f>_xll.qlRateHelperRate(,$D31)</f>
-        <v>1.225E-2</v>
+        <v>1.157E-2</v>
       </c>
       <c r="G31" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -7805,18 +7807,18 @@
       </c>
       <c r="H31" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D31)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I31" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D31)</f>
-        <v>47252</v>
+        <v>47358</v>
       </c>
       <c r="J31" s="5">
-        <v>5.0000000079898903E-2</v>
+        <v>5.0000000011549611E-2</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="62" t="str">
-        <v>EURAB6E13Y_Quote_rh#0000</v>
+        <v>EURAB6E13Y_Quote_rh#0005</v>
       </c>
       <c r="N31" s="137"/>
       <c r="O31" s="62"/>
@@ -7839,7 +7841,7 @@
       </c>
       <c r="F32" s="17">
         <f>_xll.qlRateHelperRate(,$D32)</f>
-        <v>1.2659999999999999E-2</v>
+        <v>1.196E-2</v>
       </c>
       <c r="G32" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -7847,18 +7849,18 @@
       </c>
       <c r="H32" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D32)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I32" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D32)</f>
-        <v>47617</v>
+        <v>47723</v>
       </c>
       <c r="J32" s="5">
-        <v>5.0000000085600897E-2</v>
+        <v>5.0000000012373355E-2</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="62" t="str">
-        <v>EURAB6E14Y_Quote_rh#0000</v>
+        <v>EURAB6E14Y_Quote_rh#0005</v>
       </c>
       <c r="N32" s="137"/>
       <c r="O32" s="62"/>
@@ -7881,7 +7883,7 @@
       </c>
       <c r="F33" s="17">
         <f>_xll.qlRateHelperRate(,$D33)</f>
-        <v>1.299E-2</v>
+        <v>1.2270000000000001E-2</v>
       </c>
       <c r="G33" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -7889,18 +7891,18 @@
       </c>
       <c r="H33" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D33)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I33" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D33)</f>
-        <v>47982</v>
+        <v>48088</v>
       </c>
       <c r="J33" s="5">
-        <v>5.0000000091302892E-2</v>
+        <v>5.0000000013197092E-2</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="62" t="str">
-        <v>EURAB6E15Y_Quote_rh#0000</v>
+        <v>EURAB6E15Y_Quote_rh#0005</v>
       </c>
       <c r="N33" s="137"/>
       <c r="O33" s="62"/>
@@ -7923,7 +7925,7 @@
       </c>
       <c r="F34" s="17">
         <f>_xll.qlRateHelperRate(,$D34)</f>
-        <v>1.3269999999999999E-2</v>
+        <v>1.252E-2</v>
       </c>
       <c r="G34" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -7931,18 +7933,18 @@
       </c>
       <c r="H34" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D34)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I34" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D34)</f>
-        <v>48348</v>
+        <v>48456</v>
       </c>
       <c r="J34" s="5">
-        <v>5.0000000097020506E-2</v>
+        <v>5.0000000014027601E-2</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="62" t="str">
-        <v>EURAB6E16Y_Quote_rh#0000</v>
+        <v>EURAB6E16Y_Quote_rh#0005</v>
       </c>
       <c r="N34" s="137"/>
       <c r="O34" s="62"/>
@@ -7965,7 +7967,7 @@
       </c>
       <c r="F35" s="17">
         <f>_xll.qlRateHelperRate(,$D35)</f>
-        <v>1.349E-2</v>
+        <v>1.272E-2</v>
       </c>
       <c r="G35" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -7973,18 +7975,18 @@
       </c>
       <c r="H35" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D35)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I35" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D35)</f>
-        <v>48715</v>
+        <v>48820</v>
       </c>
       <c r="J35" s="5">
-        <v>5.0000000102753739E-2</v>
+        <v>5.0000000014849076E-2</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="62" t="str">
-        <v>EURAB6E17Y_Quote_rh#0000</v>
+        <v>EURAB6E17Y_Quote_rh#0005</v>
       </c>
       <c r="N35" s="137"/>
       <c r="O35" s="62"/>
@@ -8007,7 +8009,7 @@
       </c>
       <c r="F36" s="17">
         <f>_xll.qlRateHelperRate(,$D36)</f>
-        <v>1.367E-2</v>
+        <v>1.2880000000000001E-2</v>
       </c>
       <c r="G36" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
@@ -8015,18 +8017,18 @@
       </c>
       <c r="H36" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D36)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I36" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D36)</f>
-        <v>49079</v>
+        <v>49184</v>
       </c>
       <c r="J36" s="5">
-        <v>5.0000000108440107E-2</v>
+        <v>5.0000000015670551E-2</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="62" t="str">
-        <v>EURAB6E18Y_Quote_rh#0000</v>
+        <v>EURAB6E18Y_Quote_rh#0005</v>
       </c>
       <c r="N36" s="137"/>
       <c r="O36" s="62"/>
@@ -8049,7 +8051,7 @@
       </c>
       <c r="F37" s="17">
         <f>_xll.qlRateHelperRate(,$D37)</f>
-        <v>1.3809999999999999E-2</v>
+        <v>1.3010000000000001E-2</v>
       </c>
       <c r="G37" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
@@ -8057,18 +8059,18 @@
       </c>
       <c r="H37" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D37)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I37" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D37)</f>
-        <v>49443</v>
+        <v>49549</v>
       </c>
       <c r="J37" s="5">
-        <v>5.0000000114126475E-2</v>
+        <v>5.0000000016494281E-2</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="62" t="str">
-        <v>EURAB6E19Y_Quote_rh#0000</v>
+        <v>EURAB6E19Y_Quote_rh#0005</v>
       </c>
       <c r="N37" s="137"/>
       <c r="O37" s="62"/>
@@ -8091,7 +8093,7 @@
       </c>
       <c r="F38" s="17">
         <f>_xll.qlRateHelperRate(,$D38)</f>
-        <v>1.3919999999999998E-2</v>
+        <v>1.311E-2</v>
       </c>
       <c r="G38" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
@@ -8099,18 +8101,18 @@
       </c>
       <c r="H38" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D38)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I38" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D38)</f>
-        <v>49809</v>
+        <v>49915</v>
       </c>
       <c r="J38" s="5">
-        <v>5.0000000119844082E-2</v>
+        <v>5.0000000017320259E-2</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="62" t="str">
-        <v>EURAB6E20Y_Quote_rh#0000</v>
+        <v>EURAB6E20Y_Quote_rh#0005</v>
       </c>
       <c r="N38" s="137"/>
       <c r="O38" s="62"/>
@@ -8133,7 +8135,7 @@
       </c>
       <c r="F39" s="17">
         <f>_xll.qlRateHelperRate(,$D39)</f>
-        <v>1.3990000000000001E-2</v>
+        <v>1.319E-2</v>
       </c>
       <c r="G39" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
@@ -8141,18 +8143,18 @@
       </c>
       <c r="H39" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D39)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I39" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D39)</f>
-        <v>50174</v>
+        <v>50280</v>
       </c>
       <c r="J39" s="5">
-        <v>5.0000000125546069E-2</v>
+        <v>5.0000000018143989E-2</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="62" t="str">
-        <v>EURAB6E21Y_Quote_rh#0000</v>
+        <v>EURAB6E21Y_Quote_rh#0005</v>
       </c>
       <c r="N39" s="137"/>
       <c r="O39" s="62"/>
@@ -8175,7 +8177,7 @@
       </c>
       <c r="F40" s="17">
         <f>_xll.qlRateHelperRate(,$D40)</f>
-        <v>1.405E-2</v>
+        <v>1.325E-2</v>
       </c>
       <c r="G40" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
@@ -8183,18 +8185,18 @@
       </c>
       <c r="H40" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D40)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I40" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D40)</f>
-        <v>50539</v>
+        <v>50647</v>
       </c>
       <c r="J40" s="5">
-        <v>5.000000013124805E-2</v>
+        <v>5.0000000018972222E-2</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="62" t="str">
-        <v>EURAB6E22Y_Quote_rh#0000</v>
+        <v>EURAB6E22Y_Quote_rh#0005</v>
       </c>
       <c r="N40" s="137"/>
       <c r="O40" s="62"/>
@@ -8217,7 +8219,7 @@
       </c>
       <c r="F41" s="17">
         <f>_xll.qlRateHelperRate(,$D41)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>1.329E-2</v>
       </c>
       <c r="G41" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
@@ -8225,18 +8227,18 @@
       </c>
       <c r="H41" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D41)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I41" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D41)</f>
-        <v>50906</v>
+        <v>51011</v>
       </c>
       <c r="J41" s="5">
-        <v>5.0000000136981276E-2</v>
+        <v>5.0000000019793683E-2</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="62" t="str">
-        <v>EURAB6E23Y_Quote_rh#0000</v>
+        <v>EURAB6E23Y_Quote_rh#0005</v>
       </c>
       <c r="N41" s="137"/>
       <c r="O41" s="62"/>
@@ -8259,7 +8261,7 @@
       </c>
       <c r="F42" s="17">
         <f>_xll.qlRateHelperRate(,$D42)</f>
-        <v>1.4140000000000002E-2</v>
+        <v>1.3340000000000001E-2</v>
       </c>
       <c r="G42" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
@@ -8267,18 +8269,18 @@
       </c>
       <c r="H42" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D42)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I42" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D42)</f>
-        <v>51270</v>
+        <v>51376</v>
       </c>
       <c r="J42" s="5">
-        <v>5.0000000142667624E-2</v>
+        <v>5.0000000020617399E-2</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="62" t="str">
-        <v>EURAB6E24Y_Quote_rh#0000</v>
+        <v>EURAB6E24Y_Quote_rh#0005</v>
       </c>
       <c r="N42" s="137"/>
       <c r="O42" s="62"/>
@@ -8301,7 +8303,7 @@
       </c>
       <c r="F43" s="17">
         <f>_xll.qlRateHelperRate(,$D43)</f>
-        <v>1.4180000000000002E-2</v>
+        <v>1.3380000000000001E-2</v>
       </c>
       <c r="G43" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
@@ -8309,18 +8311,18 @@
       </c>
       <c r="H43" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D43)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I43" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D43)</f>
-        <v>51635</v>
+        <v>51741</v>
       </c>
       <c r="J43" s="5">
-        <v>5.0000000148369597E-2</v>
+        <v>5.0000000021441122E-2</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="62" t="str">
-        <v>EURAB6E25Y_Quote_rh#0000</v>
+        <v>EURAB6E25Y_Quote_rh#0005</v>
       </c>
       <c r="N43" s="137"/>
       <c r="O43" s="62"/>
@@ -8343,7 +8345,7 @@
       </c>
       <c r="F44" s="17">
         <f>_xll.qlRateHelperRate(,$D44)</f>
-        <v>1.423E-2</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="G44" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
@@ -8351,18 +8353,18 @@
       </c>
       <c r="H44" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D44)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I44" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D44)</f>
-        <v>52000</v>
+        <v>52106</v>
       </c>
       <c r="J44" s="5">
-        <v>5.0000000154071578E-2</v>
+        <v>5.0000000022264846E-2</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="62" t="str">
-        <v>EURAB6E26Y_Quote_rh#0000</v>
+        <v>EURAB6E26Y_Quote_rh#0005</v>
       </c>
       <c r="N44" s="137"/>
       <c r="O44" s="62"/>
@@ -8385,7 +8387,7 @@
       </c>
       <c r="F45" s="17">
         <f>_xll.qlRateHelperRate(,$D45)</f>
-        <v>1.427E-2</v>
+        <v>1.3469999999999999E-2</v>
       </c>
       <c r="G45" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
@@ -8393,18 +8395,18 @@
       </c>
       <c r="H45" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D45)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I45" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D45)</f>
-        <v>52365</v>
+        <v>52471</v>
       </c>
       <c r="J45" s="5">
-        <v>5.0000000159773558E-2</v>
+        <v>5.0000000023088569E-2</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="62" t="str">
-        <v>EURAB6E27Y_Quote_rh#0000</v>
+        <v>EURAB6E27Y_Quote_rh#0005</v>
       </c>
       <c r="N45" s="137"/>
       <c r="O45" s="62"/>
@@ -8427,7 +8429,7 @@
       </c>
       <c r="F46" s="17">
         <f>_xll.qlRateHelperRate(,$D46)</f>
-        <v>1.431E-2</v>
+        <v>1.3509999999999999E-2</v>
       </c>
       <c r="G46" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
@@ -8435,18 +8437,18 @@
       </c>
       <c r="H46" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D46)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I46" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D46)</f>
-        <v>52733</v>
+        <v>52838</v>
       </c>
       <c r="J46" s="5">
-        <v>5.0000000165522411E-2</v>
+        <v>5.0000000023916802E-2</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="62" t="str">
-        <v>EURAB6E28Y_Quote_rh#0000</v>
+        <v>EURAB6E28Y_Quote_rh#0005</v>
       </c>
       <c r="N46" s="137"/>
       <c r="O46" s="62"/>
@@ -8469,7 +8471,7 @@
       </c>
       <c r="F47" s="17">
         <f>_xll.qlRateHelperRate(,$D47)</f>
-        <v>1.4339999999999999E-2</v>
+        <v>1.3540000000000002E-2</v>
       </c>
       <c r="G47" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
@@ -8477,18 +8479,18 @@
       </c>
       <c r="H47" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D47)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I47" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D47)</f>
-        <v>53097</v>
+        <v>53202</v>
       </c>
       <c r="J47" s="5">
-        <v>5.0000000171208779E-2</v>
+        <v>5.0000000024738263E-2</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="62" t="str">
-        <v>EURAB6E29Y_Quote_rh#0000</v>
+        <v>EURAB6E29Y_Quote_rh#0005</v>
       </c>
       <c r="N47" s="137"/>
       <c r="O47" s="62"/>
@@ -8511,7 +8513,7 @@
       </c>
       <c r="F48" s="17">
         <f>_xll.qlRateHelperRate(,$D48)</f>
-        <v>1.4419999999999999E-2</v>
+        <v>1.363E-2</v>
       </c>
       <c r="G48" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
@@ -8519,18 +8521,18 @@
       </c>
       <c r="H48" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D48)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I48" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D48)</f>
-        <v>54924</v>
+        <v>55029</v>
       </c>
       <c r="J48" s="5">
-        <v>5.0000000199749969E-2</v>
+        <v>5.0000000028861367E-2</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="62" t="str">
-        <v>EURAB6E30Y_Quote_rh#0000</v>
+        <v>EURAB6E30Y_Quote_rh#0005</v>
       </c>
       <c r="N48" s="137"/>
       <c r="O48" s="62"/>
@@ -8553,7 +8555,7 @@
       </c>
       <c r="F49" s="17">
         <f>_xll.qlRateHelperRate(,$D49)</f>
-        <v>1.439E-2</v>
+        <v>1.362E-2</v>
       </c>
       <c r="G49" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
@@ -8561,18 +8563,18 @@
       </c>
       <c r="H49" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D49)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I49" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D49)</f>
-        <v>56748</v>
+        <v>56856</v>
       </c>
       <c r="J49" s="5">
-        <v>5.0000000228244301E-2</v>
+        <v>5.0000000032984479E-2</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="62" t="str">
-        <v>EURAB6E35Y_Quote_rh#0000</v>
+        <v>EURAB6E35Y_Quote_rh#0005</v>
       </c>
       <c r="N49" s="137"/>
       <c r="O49" s="62"/>
@@ -8595,7 +8597,7 @@
       </c>
       <c r="F50" s="17">
         <f>_xll.qlRateHelperRate(,$D50)</f>
-        <v>1.391E-2</v>
+        <v>1.3180000000000001E-2</v>
       </c>
       <c r="G50" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
@@ -8603,18 +8605,18 @@
       </c>
       <c r="H50" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D50)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I50" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D50)</f>
-        <v>60401</v>
+        <v>60507</v>
       </c>
       <c r="J50" s="5">
-        <v>5.0000000285311076E-2</v>
+        <v>5.000000004122393E-2</v>
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="62" t="str">
-        <v>EURAB6E40Y_Quote_rh#0000</v>
+        <v>EURAB6E40Y_Quote_rh#0005</v>
       </c>
       <c r="N50" s="137"/>
       <c r="O50" s="62"/>
@@ -8637,7 +8639,7 @@
       </c>
       <c r="F51" s="17">
         <f>_xll.qlRateHelperRate(,$D51)</f>
-        <v>1.376E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="G51" s="17" t="str">
         <f ca="1">IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
@@ -8645,18 +8647,18 @@
       </c>
       <c r="H51" s="16">
         <f>_xll.qlRateHelperEarliestDate(,$D51)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I51" s="15">
         <f>_xll.qlRateHelperLatestDate(,$D51)</f>
-        <v>64053</v>
+        <v>64159</v>
       </c>
       <c r="J51" s="5">
-        <v>5.0000000342362232E-2</v>
+        <v>5.0000000049465636E-2</v>
       </c>
       <c r="L51" s="61"/>
       <c r="M51" s="62" t="str">
-        <v>EURAB6E50Y_Quote_rh#0000</v>
+        <v>EURAB6E50Y_Quote_rh#0005</v>
       </c>
       <c r="N51" s="137"/>
       <c r="O51" s="62"/>
@@ -8698,7 +8700,7 @@
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="62" t="str">
-        <v>EURAB6E60Y_Quote_rh#0000</v>
+        <v>EURAB6E60Y_Quote_rh#0005</v>
       </c>
       <c r="N52" s="137"/>
       <c r="O52" s="62"/>
@@ -11194,7 +11196,7 @@
       </c>
       <c r="E3" s="143" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D3&amp;"_rh",ObjectOverwrite,Permanent,D3,C3)</f>
-        <v>EUROND_Quote_rh#0000</v>
+        <v>EUROND_Quote_rh#0004</v>
       </c>
       <c r="F3" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -11216,7 +11218,7 @@
       </c>
       <c r="E4" s="202" t="str">
         <f>_xll.qlFraRateHelper(Trigger,D4&amp;"_rh",ObjectOverwrite,Permanent,D4,"1D",C4)</f>
-        <v>EURTND_Quote_rh#0000</v>
+        <v>EURTND_Quote_rh#0004</v>
       </c>
       <c r="F4" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -11238,7 +11240,7 @@
       </c>
       <c r="E5" s="206" t="str">
         <f>_xll.qlFraRateHelper(Trigger,D5&amp;"_rh",ObjectOverwrite,Permanent,D5,"2D",C5)</f>
-        <v>EURSND_Quote_rh#0000</v>
+        <v>EURSND_Quote_rh#0004</v>
       </c>
       <c r="F5" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -11261,7 +11263,7 @@
       </c>
       <c r="E6" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D6&amp;"_rh",ObjectOverwrite,Permanent,D6,C6)</f>
-        <v>EURSWD_Quote_rh#0000</v>
+        <v>EURSWD_Quote_rh#0004</v>
       </c>
       <c r="F6" s="145"/>
       <c r="G6" s="67"/>
@@ -11281,7 +11283,7 @@
       </c>
       <c r="E7" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D7&amp;"_rh",ObjectOverwrite,Permanent,D7,C7)</f>
-        <v>EUR1MD_Quote_rh#0000</v>
+        <v>EUR1MD_Quote_rh#0004</v>
       </c>
       <c r="F7" s="145"/>
       <c r="G7" s="67"/>
@@ -11301,7 +11303,7 @@
       </c>
       <c r="E8" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D8&amp;"_rh",ObjectOverwrite,Permanent,D8,C8)</f>
-        <v>EUR2MD_Quote_rh#0000</v>
+        <v>EUR2MD_Quote_rh#0004</v>
       </c>
       <c r="F8" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -11324,7 +11326,7 @@
       </c>
       <c r="E9" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D9&amp;"_rh",ObjectOverwrite,Permanent,D9,C9)</f>
-        <v>EUR3MD_Quote_rh#0000</v>
+        <v>EUR3MD_Quote_rh#0004</v>
       </c>
       <c r="F9" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -11339,7 +11341,7 @@
       </c>
       <c r="C10" s="147" t="str">
         <f>_xll.qlEuribor(Trigger,"Euribor4M",ObjectOverwrite,,B10)</f>
-        <v>Euribor4M#0001</v>
+        <v>Euribor4M#0005</v>
       </c>
       <c r="D10" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11347,7 +11349,7 @@
       </c>
       <c r="E10" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D10&amp;"_rh",ObjectOverwrite,Permanent,D10,C10)</f>
-        <v>EUR4MD_Quote_rh#0000</v>
+        <v>EUR4MD_Quote_rh#0004</v>
       </c>
       <c r="F10" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -11362,7 +11364,7 @@
       </c>
       <c r="C11" s="147" t="str">
         <f>_xll.qlEuribor(Trigger,"Euribor3M",ObjectOverwrite,,B11)</f>
-        <v>Euribor3M#0001</v>
+        <v>Euribor3M#0005</v>
       </c>
       <c r="D11" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11370,7 +11372,7 @@
       </c>
       <c r="E11" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D11&amp;"_rh",ObjectOverwrite,Permanent,D11,C11)</f>
-        <v>EUR5MD_Quote_rh#0000</v>
+        <v>EUR5MD_Quote_rh#0004</v>
       </c>
       <c r="F11" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -11393,7 +11395,7 @@
       </c>
       <c r="E12" s="68" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D12&amp;"_rh",ObjectOverwrite,Permanent,D12,C12)</f>
-        <v>EUR6MD_Quote_rh#0000</v>
+        <v>EUR6MD_Quote_rh#0004</v>
       </c>
       <c r="F12" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -11518,7 +11520,7 @@
       </c>
       <c r="H3" s="217" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G3&amp;"_rh",ObjectOverwrite,Permanent,G3,B3,E3)</f>
-        <v>EUR1x7F_Quote_rh#0000</v>
+        <v>EUR1x7F_Quote_rh#0004</v>
       </c>
       <c r="I3" s="219" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11552,7 +11554,7 @@
       </c>
       <c r="H4" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G4&amp;"_rh",ObjectOverwrite,Permanent,G4,B4,E4)</f>
-        <v>EUR2x8F_Quote_rh#0000</v>
+        <v>EUR2x8F_Quote_rh#0004</v>
       </c>
       <c r="I4" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11586,7 +11588,7 @@
       </c>
       <c r="H5" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G5&amp;"_rh",ObjectOverwrite,Permanent,G5,B5,E5)</f>
-        <v>EUR3x9F_Quote_rh#0000</v>
+        <v>EUR3x9F_Quote_rh#0004</v>
       </c>
       <c r="I5" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11620,7 +11622,7 @@
       </c>
       <c r="H6" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G6&amp;"_rh",ObjectOverwrite,Permanent,G6,B6,E6)</f>
-        <v>EUR4x10F_Quote_rh#0000</v>
+        <v>EUR4x10F_Quote_rh#0004</v>
       </c>
       <c r="I6" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11654,7 +11656,7 @@
       </c>
       <c r="H7" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G7&amp;"_rh",ObjectOverwrite,Permanent,G7,B7,E7)</f>
-        <v>EUR5x11F_Quote_rh#0000</v>
+        <v>EUR5x11F_Quote_rh#0004</v>
       </c>
       <c r="I7" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11688,7 +11690,7 @@
       </c>
       <c r="H8" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G8&amp;"_rh",ObjectOverwrite,Permanent,G8,B8,E8)</f>
-        <v>EUR6x12F_Quote_rh#0000</v>
+        <v>EUR6x12F_Quote_rh#0004</v>
       </c>
       <c r="I8" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11722,7 +11724,7 @@
       </c>
       <c r="H9" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G9&amp;"_rh",ObjectOverwrite,Permanent,G9,B9,E9)</f>
-        <v>EUR7x13F_Quote_rh#0000</v>
+        <v>EUR7x13F_Quote_rh#0004</v>
       </c>
       <c r="I9" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11756,7 +11758,7 @@
       </c>
       <c r="H10" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G10&amp;"_rh",ObjectOverwrite,Permanent,G10,B10,E10)</f>
-        <v>EUR8x14F_Quote_rh#0000</v>
+        <v>EUR8x14F_Quote_rh#0004</v>
       </c>
       <c r="I10" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11790,7 +11792,7 @@
       </c>
       <c r="H11" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G11&amp;"_rh",ObjectOverwrite,Permanent,G11,B11,E11)</f>
-        <v>EUR9x15F_Quote_rh#0000</v>
+        <v>EUR9x15F_Quote_rh#0004</v>
       </c>
       <c r="I11" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11824,7 +11826,7 @@
       </c>
       <c r="H12" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G12&amp;"_rh",ObjectOverwrite,Permanent,G12,B12,E12)</f>
-        <v>EUR10x16F_Quote_rh#0000</v>
+        <v>EUR10x16F_Quote_rh#0004</v>
       </c>
       <c r="I12" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11858,7 +11860,7 @@
       </c>
       <c r="H13" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G13&amp;"_rh",ObjectOverwrite,Permanent,G13,B13,E13)</f>
-        <v>EUR11x17F_Quote_rh#0000</v>
+        <v>EUR11x17F_Quote_rh#0004</v>
       </c>
       <c r="I13" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11892,7 +11894,7 @@
       </c>
       <c r="H14" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G14&amp;"_rh",ObjectOverwrite,Permanent,G14,B14,E14)</f>
-        <v>EUR12x18F_Quote_rh#0000</v>
+        <v>EUR12x18F_Quote_rh#0004</v>
       </c>
       <c r="I14" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11926,7 +11928,7 @@
       </c>
       <c r="H15" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G15&amp;"_rh",ObjectOverwrite,Permanent,G15,B15,E15)</f>
-        <v>EUR13x19F_Quote_rh#0000</v>
+        <v>EUR13x19F_Quote_rh#0004</v>
       </c>
       <c r="I15" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11960,7 +11962,7 @@
       </c>
       <c r="H16" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G16&amp;"_rh",ObjectOverwrite,Permanent,G16,B16,E16)</f>
-        <v>EUR14x20F_Quote_rh#0000</v>
+        <v>EUR14x20F_Quote_rh#0004</v>
       </c>
       <c r="I16" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11994,7 +11996,7 @@
       </c>
       <c r="H17" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G17&amp;"_rh",ObjectOverwrite,Permanent,G17,B17,E17)</f>
-        <v>EUR15x21F_Quote_rh#0000</v>
+        <v>EUR15x21F_Quote_rh#0004</v>
       </c>
       <c r="I17" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -12028,7 +12030,7 @@
       </c>
       <c r="H18" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G18&amp;"_rh",ObjectOverwrite,Permanent,G18,B18,E18)</f>
-        <v>EUR16x22F_Quote_rh#0000</v>
+        <v>EUR16x22F_Quote_rh#0004</v>
       </c>
       <c r="I18" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -12062,7 +12064,7 @@
       </c>
       <c r="H19" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G19&amp;"_rh",ObjectOverwrite,Permanent,G19,B19,E19)</f>
-        <v>EUR17x23F_Quote_rh#0000</v>
+        <v>EUR17x23F_Quote_rh#0004</v>
       </c>
       <c r="I19" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -12096,7 +12098,7 @@
       </c>
       <c r="H20" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G20&amp;"_rh",ObjectOverwrite,Permanent,G20,B20,E20)</f>
-        <v>EUR18x24F_Quote_rh#0000</v>
+        <v>EUR18x24F_Quote_rh#0004</v>
       </c>
       <c r="I20" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -12217,11 +12219,11 @@
       </c>
       <c r="E3" s="164" t="str">
         <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(,_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="F3" s="165">
         <f>_xll.qlIMMdate(,E3)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="G3" s="164" t="str">
         <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -12229,15 +12231,15 @@
       </c>
       <c r="H3" s="166" t="str">
         <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
-        <v>EURFUT3MK5_Quote</v>
+        <v>EURFUT3MU5_Quote</v>
       </c>
       <c r="I3" s="166" t="str">
         <f t="shared" ref="I3:I34" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MK5ConvAdj_Quote</v>
+        <v>EURFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="J3" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I3&amp;"_rh",ObjectOverwrite,Permanent,$H3,C3,$E3,$G3,$I3)</f>
-        <v>EURFUT3MK5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K3" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -12258,11 +12260,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="169" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="F4" s="170">
         <f>_xll.qlIMMdate(,E4)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="G4" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12270,15 +12272,15 @@
       </c>
       <c r="H4" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="I4" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM5ConvAdj_Quote</v>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J4" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I4&amp;"_rh",ObjectOverwrite,Permanent,$H4,C4,$E4,$G4,$I4)</f>
-        <v>EURFUT3MM5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MV5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K4" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -12299,11 +12301,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="169" t="str">
-        <v>N5</v>
+        <v>X5</v>
       </c>
       <c r="F5" s="170">
         <f>_xll.qlIMMdate(,E5)</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="G5" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12311,15 +12313,15 @@
       </c>
       <c r="H5" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="I5" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J5" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I5&amp;"_rh",ObjectOverwrite,Permanent,$H5,C5,$E5,$G5,$I5)</f>
-        <v>EURFUT3MN5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MX5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K5" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -12340,11 +12342,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="169" t="str">
-        <v>Q5</v>
+        <v>Z5</v>
       </c>
       <c r="F6" s="170">
         <f>_xll.qlIMMdate(,E6)</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12352,15 +12354,15 @@
       </c>
       <c r="H6" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="I6" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J6" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I6&amp;"_rh",ObjectOverwrite,Permanent,$H6,C6,$E6,$G6,$I6)</f>
-        <v>EURFUT3MQ5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ5ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K6" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12381,11 +12383,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="169" t="str">
-        <v>U5</v>
+        <v>F6</v>
       </c>
       <c r="F7" s="170">
         <f>_xll.qlIMMdate(,E7)</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="G7" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12393,15 +12395,15 @@
       </c>
       <c r="H7" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="I7" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J7" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I7&amp;"_rh",ObjectOverwrite,Permanent,$H7,C7,$E7,$G7,$I7)</f>
-        <v>EURFUT3MU5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MF6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K7" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12422,11 +12424,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="169" t="str">
-        <v>V5</v>
+        <v>G6</v>
       </c>
       <c r="F8" s="170">
         <f>_xll.qlIMMdate(,E8)</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="G8" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12434,15 +12436,15 @@
       </c>
       <c r="H8" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="I8" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J8" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I8&amp;"_rh",ObjectOverwrite,Permanent,$H8,C8,$E8,$G8,$I8)</f>
-        <v>EURFUT3MV5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MG6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K8" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12463,11 +12465,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="169" t="str">
-        <v>X5</v>
+        <v>H6</v>
       </c>
       <c r="F9" s="170">
         <f>_xll.qlIMMdate(,E9)</f>
-        <v>42326</v>
+        <v>42445</v>
       </c>
       <c r="G9" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12475,15 +12477,15 @@
       </c>
       <c r="H9" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="I9" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J9" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I9&amp;"_rh",ObjectOverwrite,Permanent,$H9,C9,$E9,$G9,$I9)</f>
-        <v>EURFUT3MX5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K9" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12504,11 +12506,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="169" t="str">
-        <v>Z5</v>
+        <v>J6</v>
       </c>
       <c r="F10" s="170">
         <f>_xll.qlIMMdate(,E10)</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
       <c r="G10" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12516,15 +12518,15 @@
       </c>
       <c r="H10" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MJ6_Quote</v>
       </c>
       <c r="I10" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <v>EURFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="J10" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I10&amp;"_rh",ObjectOverwrite,Permanent,$H10,C10,$E10,$G10,$I10)</f>
-        <v>EURFUT3MZ5ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MJ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K10" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12545,11 +12547,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="169" t="str">
-        <v>F6</v>
+        <v>K6</v>
       </c>
       <c r="F11" s="170">
         <f>_xll.qlIMMdate(,E11)</f>
-        <v>42389</v>
+        <v>42508</v>
       </c>
       <c r="G11" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12557,15 +12559,15 @@
       </c>
       <c r="H11" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MF6_Quote</v>
+        <v>EURFUT3MK6_Quote</v>
       </c>
       <c r="I11" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MF6ConvAdj_Quote</v>
+        <v>EURFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="J11" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I11&amp;"_rh",ObjectOverwrite,Permanent,$H11,C11,$E11,$G11,$I11)</f>
-        <v>EURFUT3MF6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MK6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K11" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12586,11 +12588,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="169" t="str">
-        <v>G6</v>
+        <v>M6</v>
       </c>
       <c r="F12" s="170">
         <f>_xll.qlIMMdate(,E12)</f>
-        <v>42417</v>
+        <v>42536</v>
       </c>
       <c r="G12" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12598,15 +12600,15 @@
       </c>
       <c r="H12" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MG6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="I12" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MG6ConvAdj_Quote</v>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J12" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I12&amp;"_rh",ObjectOverwrite,Permanent,$H12,C12,$E12,$G12,$I12)</f>
-        <v>EURFUT3MG6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K12" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -12627,11 +12629,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="169" t="str">
-        <v>H6</v>
+        <v>N6</v>
       </c>
       <c r="F13" s="170">
         <f>_xll.qlIMMdate(,E13)</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
       <c r="G13" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12639,15 +12641,15 @@
       </c>
       <c r="H13" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MN6_Quote</v>
       </c>
       <c r="I13" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <v>EURFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="J13" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I13&amp;"_rh",ObjectOverwrite,Permanent,$H13,C13,$E13,$G13,$I13)</f>
-        <v>EURFUT3MH6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MN6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K13" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -12668,11 +12670,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="169" t="str">
-        <v>J6</v>
+        <v>Q6</v>
       </c>
       <c r="F14" s="170">
         <f>_xll.qlIMMdate(,E14)</f>
-        <v>42480</v>
+        <v>42599</v>
       </c>
       <c r="G14" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12680,15 +12682,15 @@
       </c>
       <c r="H14" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MJ6_Quote</v>
+        <v>EURFUT3MQ6_Quote</v>
       </c>
       <c r="I14" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MJ6ConvAdj_Quote</v>
+        <v>EURFUT3MQ6ConvAdj_Quote</v>
       </c>
       <c r="J14" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I14&amp;"_rh",ObjectOverwrite,Permanent,$H14,C14,$E14,$G14,$I14)</f>
-        <v>EURFUT3MJ6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MQ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K14" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -12709,11 +12711,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="169" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="F15" s="170">
         <f>_xll.qlIMMdate(,E15)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="G15" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12721,15 +12723,15 @@
       </c>
       <c r="H15" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="I15" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J15" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I15&amp;"_rh",ObjectOverwrite,Permanent,$H15,C15,$E15,$G15,$I15)</f>
-        <v>EURFUT3MM6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K15" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -12750,11 +12752,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="169" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="F16" s="170">
         <f>_xll.qlIMMdate(,E16)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="G16" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12762,15 +12764,15 @@
       </c>
       <c r="H16" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="I16" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J16" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I16&amp;"_rh",ObjectOverwrite,Permanent,$H16,C16,$E16,$G16,$I16)</f>
-        <v>EURFUT3MU6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ6ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K16" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -12791,11 +12793,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="169" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="F17" s="170">
         <f>_xll.qlIMMdate(,E17)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="G17" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12803,15 +12805,15 @@
       </c>
       <c r="H17" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="I17" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J17" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I17&amp;"_rh",ObjectOverwrite,Permanent,$H17,C17,$E17,$G17,$I17)</f>
-        <v>EURFUT3MZ6ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K17" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -12832,11 +12834,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="169" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="F18" s="170">
         <f>_xll.qlIMMdate(,E18)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="G18" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12844,15 +12846,15 @@
       </c>
       <c r="H18" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="I18" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J18" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I18&amp;"_rh",ObjectOverwrite,Permanent,$H18,C18,$E18,$G18,$I18)</f>
-        <v>EURFUT3MH7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K18" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -12873,11 +12875,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="169" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="F19" s="170">
         <f>_xll.qlIMMdate(,E19)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="G19" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12885,15 +12887,15 @@
       </c>
       <c r="H19" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="I19" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J19" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I19&amp;"_rh",ObjectOverwrite,Permanent,$H19,C19,$E19,$G19,$I19)</f>
-        <v>EURFUT3MM7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K19" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -12914,11 +12916,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="169" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="F20" s="170">
         <f>_xll.qlIMMdate(,E20)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="G20" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12926,15 +12928,15 @@
       </c>
       <c r="H20" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="I20" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J20" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I20&amp;"_rh",ObjectOverwrite,Permanent,$H20,C20,$E20,$G20,$I20)</f>
-        <v>EURFUT3MU7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ7ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K20" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -12955,11 +12957,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="169" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="F21" s="170">
         <f>_xll.qlIMMdate(,E21)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="G21" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12967,15 +12969,15 @@
       </c>
       <c r="H21" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="I21" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J21" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I21&amp;"_rh",ObjectOverwrite,Permanent,$H21,C21,$E21,$G21,$I21)</f>
-        <v>EURFUT3MZ7ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K21" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -12996,11 +12998,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="169" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="F22" s="170">
         <f>_xll.qlIMMdate(,E22)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="G22" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13008,15 +13010,15 @@
       </c>
       <c r="H22" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="I22" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J22" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I22&amp;"_rh",ObjectOverwrite,Permanent,$H22,C22,$E22,$G22,$I22)</f>
-        <v>EURFUT3MH8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K22" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J22)</f>
@@ -13037,11 +13039,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="169" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="F23" s="170">
         <f>_xll.qlIMMdate(,E23)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="G23" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13049,15 +13051,15 @@
       </c>
       <c r="H23" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="I23" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J23" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I23&amp;"_rh",ObjectOverwrite,Permanent,$H23,C23,$E23,$G23,$I23)</f>
-        <v>EURFUT3MM8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K23" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J23)</f>
@@ -13078,11 +13080,11 @@
         <v>1</v>
       </c>
       <c r="E24" s="169" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="F24" s="170">
         <f>_xll.qlIMMdate(,E24)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="G24" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13090,15 +13092,15 @@
       </c>
       <c r="H24" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="I24" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J24" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I24&amp;"_rh",ObjectOverwrite,Permanent,$H24,C24,$E24,$G24,$I24)</f>
-        <v>EURFUT3MU8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ8ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K24" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J24)</f>
@@ -13119,11 +13121,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="169" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="F25" s="170">
         <f>_xll.qlIMMdate(,E25)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="G25" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13131,15 +13133,15 @@
       </c>
       <c r="H25" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="I25" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J25" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I25&amp;"_rh",ObjectOverwrite,Permanent,$H25,C25,$E25,$G25,$I25)</f>
-        <v>EURFUT3MZ8ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K25" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J25)</f>
@@ -13160,11 +13162,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="169" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="F26" s="170">
         <f>_xll.qlIMMdate(,E26)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="G26" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13172,15 +13174,15 @@
       </c>
       <c r="H26" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="I26" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J26" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I26&amp;"_rh",ObjectOverwrite,Permanent,$H26,C26,$E26,$G26,$I26)</f>
-        <v>EURFUT3MH9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K26" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J26)</f>
@@ -13201,11 +13203,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="169" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="F27" s="170">
         <f>_xll.qlIMMdate(,E27)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="G27" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13213,15 +13215,15 @@
       </c>
       <c r="H27" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="I27" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J27" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I27&amp;"_rh",ObjectOverwrite,Permanent,$H27,C27,$E27,$G27,$I27)</f>
-        <v>EURFUT3MM9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K27" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J27)</f>
@@ -13242,11 +13244,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="169" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="F28" s="170">
         <f>_xll.qlIMMdate(,E28)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="G28" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13254,15 +13256,15 @@
       </c>
       <c r="H28" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="I28" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J28" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I28&amp;"_rh",ObjectOverwrite,Permanent,$H28,C28,$E28,$G28,$I28)</f>
-        <v>EURFUT3MU9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ9ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K28" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J28)</f>
@@ -13283,11 +13285,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="169" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="F29" s="170">
         <f>_xll.qlIMMdate(,E29)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="G29" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13295,15 +13297,15 @@
       </c>
       <c r="H29" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="I29" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J29" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I29&amp;"_rh",ObjectOverwrite,Permanent,$H29,C29,$E29,$G29,$I29)</f>
-        <v>EURFUT3MZ9ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K29" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J29)</f>
@@ -13324,11 +13326,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="169" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="F30" s="170">
         <f>_xll.qlIMMdate(,E30)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="G30" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13336,15 +13338,15 @@
       </c>
       <c r="H30" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH0_Quote</v>
+        <v>EURFUT3MM0_Quote</v>
       </c>
       <c r="I30" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
+        <v>EURFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J30" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I30&amp;"_rh",ObjectOverwrite,Permanent,$H30,C30,$E30,$G30,$I30)</f>
-        <v>EURFUT3MH0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K30" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
@@ -13365,11 +13367,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="169" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="F31" s="170">
         <f>_xll.qlIMMdate(,E31)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="G31" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13377,15 +13379,15 @@
       </c>
       <c r="H31" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MM0_Quote</v>
+        <v>EURFUT3MU0_Quote</v>
       </c>
       <c r="I31" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MM0ConvAdj_Quote</v>
+        <v>EURFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J31" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I31&amp;"_rh",ObjectOverwrite,Permanent,$H31,C31,$E31,$G31,$I31)</f>
-        <v>EURFUT3MM0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K31" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
@@ -13406,11 +13408,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="169" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="F32" s="170">
         <f>_xll.qlIMMdate(,E32)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="G32" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13418,15 +13420,15 @@
       </c>
       <c r="H32" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MU0_Quote</v>
+        <v>EURFUT3MZ0_Quote</v>
       </c>
       <c r="I32" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MU0ConvAdj_Quote</v>
+        <v>EURFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="J32" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I32&amp;"_rh",ObjectOverwrite,Permanent,$H32,C32,$E32,$G32,$I32)</f>
-        <v>EURFUT3MU0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ0ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K32" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
@@ -13447,11 +13449,11 @@
         <v>1</v>
       </c>
       <c r="E33" s="169" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="F33" s="170">
         <f>_xll.qlIMMdate(,E33)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="G33" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13459,15 +13461,15 @@
       </c>
       <c r="H33" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MZ0_Quote</v>
+        <v>EURFUT3MH1_Quote</v>
       </c>
       <c r="I33" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MZ0ConvAdj_Quote</v>
+        <v>EURFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="J33" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I33&amp;"_rh",ObjectOverwrite,Permanent,$H33,C33,$E33,$G33,$I33)</f>
-        <v>EURFUT3MZ0ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K33" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
@@ -13488,11 +13490,11 @@
         <v>1</v>
       </c>
       <c r="E34" s="169" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="F34" s="170">
         <f>_xll.qlIMMdate(,E34)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="G34" s="169" t="str">
         <f t="shared" si="0"/>
@@ -13500,15 +13502,15 @@
       </c>
       <c r="H34" s="171" t="str">
         <f t="shared" si="1"/>
-        <v>EURFUT3MH1_Quote</v>
+        <v>EURFUT3MM1_Quote</v>
       </c>
       <c r="I34" s="171" t="str">
         <f t="shared" si="2"/>
-        <v>EURFUT3MH1ConvAdj_Quote</v>
+        <v>EURFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="J34" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I34&amp;"_rh",ObjectOverwrite,Permanent,$H34,C34,$E34,$G34,$I34)</f>
-        <v>EURFUT3MH1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K34" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
@@ -13529,11 +13531,11 @@
         <v>1</v>
       </c>
       <c r="E35" s="169" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="F35" s="170">
         <f>_xll.qlIMMdate(,E35)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="G35" s="169" t="str">
         <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -13541,15 +13543,15 @@
       </c>
       <c r="H35" s="171" t="str">
         <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
-        <v>EURFUT3MM1_Quote</v>
+        <v>EURFUT3MU1_Quote</v>
       </c>
       <c r="I35" s="171" t="str">
         <f t="shared" ref="I35:I44" si="5">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM1ConvAdj_Quote</v>
+        <v>EURFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="J35" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I35&amp;"_rh",ObjectOverwrite,Permanent,$H35,C35,$E35,$G35,$I35)</f>
-        <v>EURFUT3MM1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K35" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J35)</f>
@@ -13570,11 +13572,11 @@
         <v>1</v>
       </c>
       <c r="E36" s="169" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="F36" s="170">
         <f>_xll.qlIMMdate(,E36)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="G36" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13582,15 +13584,15 @@
       </c>
       <c r="H36" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU1_Quote</v>
+        <v>EURFUT3MZ1_Quote</v>
       </c>
       <c r="I36" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU1ConvAdj_Quote</v>
+        <v>EURFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="J36" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I36&amp;"_rh",ObjectOverwrite,Permanent,$H36,C36,$E36,$G36,$I36)</f>
-        <v>EURFUT3MU1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ1ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K36" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J36)</f>
@@ -13611,11 +13613,11 @@
         <v>1</v>
       </c>
       <c r="E37" s="169" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="F37" s="170">
         <f>_xll.qlIMMdate(,E37)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="G37" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13623,15 +13625,15 @@
       </c>
       <c r="H37" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ1_Quote</v>
+        <v>EURFUT3MH2_Quote</v>
       </c>
       <c r="I37" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ1ConvAdj_Quote</v>
+        <v>EURFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="J37" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I37&amp;"_rh",ObjectOverwrite,Permanent,$H37,C37,$E37,$G37,$I37)</f>
-        <v>EURFUT3MZ1ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K37" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J37)</f>
@@ -13652,11 +13654,11 @@
         <v>1</v>
       </c>
       <c r="E38" s="169" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="F38" s="170">
         <f>_xll.qlIMMdate(,E38)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="G38" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13664,15 +13666,15 @@
       </c>
       <c r="H38" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH2_Quote</v>
+        <v>EURFUT3MM2_Quote</v>
       </c>
       <c r="I38" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH2ConvAdj_Quote</v>
+        <v>EURFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="J38" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I38&amp;"_rh",ObjectOverwrite,Permanent,$H38,C38,$E38,$G38,$I38)</f>
-        <v>EURFUT3MH2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K38" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J38)</f>
@@ -13693,11 +13695,11 @@
         <v>1</v>
       </c>
       <c r="E39" s="169" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="F39" s="170">
         <f>_xll.qlIMMdate(,E39)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="G39" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13705,15 +13707,15 @@
       </c>
       <c r="H39" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM2_Quote</v>
+        <v>EURFUT3MU2_Quote</v>
       </c>
       <c r="I39" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM2ConvAdj_Quote</v>
+        <v>EURFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="J39" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I39&amp;"_rh",ObjectOverwrite,Permanent,$H39,C39,$E39,$G39,$I39)</f>
-        <v>EURFUT3MM2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K39" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J39)</f>
@@ -13734,11 +13736,11 @@
         <v>1</v>
       </c>
       <c r="E40" s="169" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="F40" s="170">
         <f>_xll.qlIMMdate(,E40)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="G40" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13746,15 +13748,15 @@
       </c>
       <c r="H40" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU2_Quote</v>
+        <v>EURFUT3MZ2_Quote</v>
       </c>
       <c r="I40" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU2ConvAdj_Quote</v>
+        <v>EURFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="J40" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I40&amp;"_rh",ObjectOverwrite,Permanent,$H40,C40,$E40,$G40,$I40)</f>
-        <v>EURFUT3MU2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ2ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K40" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J40)</f>
@@ -13774,11 +13776,11 @@
         <v>1</v>
       </c>
       <c r="E41" s="169" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="F41" s="170">
         <f>_xll.qlIMMdate(,E41)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13786,15 +13788,15 @@
       </c>
       <c r="H41" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MZ2_Quote</v>
+        <v>EURFUT3MH3_Quote</v>
       </c>
       <c r="I41" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MZ2ConvAdj_Quote</v>
+        <v>EURFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="J41" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I41&amp;"_rh",ObjectOverwrite,Permanent,$H41,C41,$E41,$G41,$I41)</f>
-        <v>EURFUT3MZ2ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MH3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K41" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J41)</f>
@@ -13814,11 +13816,11 @@
         <v>1</v>
       </c>
       <c r="E42" s="169" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="F42" s="170">
         <f>_xll.qlIMMdate(,E42)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="G42" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13826,15 +13828,15 @@
       </c>
       <c r="H42" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MH3_Quote</v>
+        <v>EURFUT3MM3_Quote</v>
       </c>
       <c r="I42" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MH3ConvAdj_Quote</v>
+        <v>EURFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="J42" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I42&amp;"_rh",ObjectOverwrite,Permanent,$H42,C42,$E42,$G42,$I42)</f>
-        <v>EURFUT3MH3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MM3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K42" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J42)</f>
@@ -13854,11 +13856,11 @@
         <v>1</v>
       </c>
       <c r="E43" s="169" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="F43" s="170">
         <f>_xll.qlIMMdate(,E43)</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="G43" s="169" t="str">
         <f t="shared" si="3"/>
@@ -13866,15 +13868,15 @@
       </c>
       <c r="H43" s="171" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MM3_Quote</v>
+        <v>EURFUT3MU3_Quote</v>
       </c>
       <c r="I43" s="171" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MM3ConvAdj_Quote</v>
+        <v>EURFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="J43" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I43&amp;"_rh",ObjectOverwrite,Permanent,$H43,C43,$E43,$G43,$I43)</f>
-        <v>EURFUT3MM3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MU3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K43" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J43)</f>
@@ -13894,11 +13896,11 @@
         <v>1</v>
       </c>
       <c r="E44" s="158" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="F44" s="163">
         <f>_xll.qlIMMdate(,E44)</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="G44" s="158" t="str">
         <f t="shared" si="3"/>
@@ -13906,15 +13908,15 @@
       </c>
       <c r="H44" s="174" t="str">
         <f t="shared" si="4"/>
-        <v>EURFUT3MU3_Quote</v>
+        <v>EURFUT3MZ3_Quote</v>
       </c>
       <c r="I44" s="174" t="str">
         <f t="shared" si="5"/>
-        <v>EURFUT3MU3ConvAdj_Quote</v>
+        <v>EURFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="J44" s="159" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I44&amp;"_rh",ObjectOverwrite,Permanent,$H44,C44,$E44,$G44,$I44)</f>
-        <v>EURFUT3MU3ConvAdj_Quote_rh#0000</v>
+        <v>EURFUT3MZ3ConvAdj_Quote_rh#0004</v>
       </c>
       <c r="K44" s="175" t="str">
         <f>_xll.ohRangeRetrieveError(J44)</f>
@@ -13953,7 +13955,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13966,9 +13968,9 @@
     <col min="7" max="7" width="7" style="138" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="138" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" style="138" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="138" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="138" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="138" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" style="138" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="138" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="138"/>
@@ -14050,8 +14052,8 @@
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
       <c r="L3" s="180" t="str">
-        <f>_xll.qlEuribor(,,,,$I$1)</f>
-        <v>obj_00004#0001</v>
+        <f>_xll.qlEuribor(,"dummy_euribor",,,$I$1)</f>
+        <v>dummy_euribor#0005</v>
       </c>
       <c r="M3" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -14104,8 +14106,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J5" s="183" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00013#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D5,,,0)</f>
+        <v>dummy_zerospread_1Y#0005</v>
       </c>
       <c r="K5" s="184" t="str">
         <f t="shared" ref="K5:K41" si="1">Currency&amp;$E5&amp;$F5&amp;$D5&amp;QuoteSuffix</f>
@@ -14113,7 +14115,7 @@
       </c>
       <c r="L5" s="185" t="str">
         <f>_xll.qlSwapRateHelper(,K5&amp;"_rh",ObjectOverwrite,Permanent,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve)</f>
-        <v>EURAB6E1Y_Quote_rh#0000</v>
+        <v>EURAB6E1Y_Quote_rh#0005</v>
       </c>
       <c r="M5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -14150,8 +14152,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J6" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00007#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D6,,,0)</f>
+        <v>dummy_zerospread_15M#0005</v>
       </c>
       <c r="K6" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14159,7 +14161,7 @@
       </c>
       <c r="L6" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K6&amp;"_rh",ObjectOverwrite,Permanent,$K6,B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,DiscountingCurve)</f>
-        <v>EURAB6E15M_Quote_rh#0000</v>
+        <v>EURAB6E15M_Quote_rh#0005</v>
       </c>
       <c r="M6" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14196,8 +14198,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J7" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00015#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D7,,,0)</f>
+        <v>dummy_zerospread_18M#0005</v>
       </c>
       <c r="K7" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14205,7 +14207,7 @@
       </c>
       <c r="L7" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K7&amp;"_rh",ObjectOverwrite,Permanent,$K7,B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,DiscountingCurve)</f>
-        <v>EURAB6E18M_Quote_rh#0000</v>
+        <v>EURAB6E18M_Quote_rh#0005</v>
       </c>
       <c r="M7" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14242,8 +14244,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J8" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00022#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D8,,,0)</f>
+        <v>dummy_zerospread_21M#0005</v>
       </c>
       <c r="K8" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14251,7 +14253,7 @@
       </c>
       <c r="L8" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K8&amp;"_rh",ObjectOverwrite,Permanent,$K8,B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,DiscountingCurve)</f>
-        <v>EURAB6E21M_Quote_rh#0000</v>
+        <v>EURAB6E21M_Quote_rh#0005</v>
       </c>
       <c r="M8" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14288,8 +14290,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J9" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000e#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D9,,,0)</f>
+        <v>dummy_zerospread_2Y#0005</v>
       </c>
       <c r="K9" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14297,7 +14299,7 @@
       </c>
       <c r="L9" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K9&amp;"_rh",ObjectOverwrite,Permanent,$K9,B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,DiscountingCurve)</f>
-        <v>EURAB6E2Y_Quote_rh#0000</v>
+        <v>EURAB6E2Y_Quote_rh#0005</v>
       </c>
       <c r="M9" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14334,8 +14336,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J10" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00005#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D10,,,0)</f>
+        <v>dummy_zerospread_3Y#0005</v>
       </c>
       <c r="K10" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14343,7 +14345,7 @@
       </c>
       <c r="L10" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K10&amp;"_rh",ObjectOverwrite,Permanent,$K10,B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,DiscountingCurve)</f>
-        <v>EURAB6E3Y_Quote_rh#0000</v>
+        <v>EURAB6E3Y_Quote_rh#0005</v>
       </c>
       <c r="M10" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14380,8 +14382,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J11" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00025#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D11,,,0)</f>
+        <v>dummy_zerospread_4Y#0005</v>
       </c>
       <c r="K11" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14389,7 +14391,7 @@
       </c>
       <c r="L11" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K11&amp;"_rh",ObjectOverwrite,Permanent,$K11,B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,DiscountingCurve)</f>
-        <v>EURAB6E4Y_Quote_rh#0000</v>
+        <v>EURAB6E4Y_Quote_rh#0005</v>
       </c>
       <c r="M11" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14426,8 +14428,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J12" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000d#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D12,,,0)</f>
+        <v>dummy_zerospread_5Y#0005</v>
       </c>
       <c r="K12" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14435,7 +14437,7 @@
       </c>
       <c r="L12" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K12&amp;"_rh",ObjectOverwrite,Permanent,$K12,B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,DiscountingCurve)</f>
-        <v>EURAB6E5Y_Quote_rh#0000</v>
+        <v>EURAB6E5Y_Quote_rh#0005</v>
       </c>
       <c r="M12" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14472,8 +14474,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J13" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00010#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D13,,,0)</f>
+        <v>dummy_zerospread_6Y#0005</v>
       </c>
       <c r="K13" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14481,7 +14483,7 @@
       </c>
       <c r="L13" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K13&amp;"_rh",ObjectOverwrite,Permanent,$K13,B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,DiscountingCurve)</f>
-        <v>EURAB6E6Y_Quote_rh#0000</v>
+        <v>EURAB6E6Y_Quote_rh#0005</v>
       </c>
       <c r="M13" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14518,8 +14520,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J14" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00001#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D14,,,0)</f>
+        <v>dummy_zerospread_7Y#0005</v>
       </c>
       <c r="K14" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14527,7 +14529,7 @@
       </c>
       <c r="L14" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K14&amp;"_rh",ObjectOverwrite,Permanent,$K14,B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,DiscountingCurve)</f>
-        <v>EURAB6E7Y_Quote_rh#0000</v>
+        <v>EURAB6E7Y_Quote_rh#0005</v>
       </c>
       <c r="M14" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14564,8 +14566,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J15" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00016#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D15,,,0)</f>
+        <v>dummy_zerospread_8Y#0005</v>
       </c>
       <c r="K15" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14573,7 +14575,7 @@
       </c>
       <c r="L15" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K15&amp;"_rh",ObjectOverwrite,Permanent,$K15,B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,DiscountingCurve)</f>
-        <v>EURAB6E8Y_Quote_rh#0000</v>
+        <v>EURAB6E8Y_Quote_rh#0005</v>
       </c>
       <c r="M15" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14610,8 +14612,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J16" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00012#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D16,,,0)</f>
+        <v>dummy_zerospread_9Y#0005</v>
       </c>
       <c r="K16" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14619,7 +14621,7 @@
       </c>
       <c r="L16" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K16&amp;"_rh",ObjectOverwrite,Permanent,$K16,B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,DiscountingCurve)</f>
-        <v>EURAB6E9Y_Quote_rh#0000</v>
+        <v>EURAB6E9Y_Quote_rh#0005</v>
       </c>
       <c r="M16" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14656,8 +14658,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J17" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001c#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D17,,,0)</f>
+        <v>dummy_zerospread_10Y#0005</v>
       </c>
       <c r="K17" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14665,7 +14667,7 @@
       </c>
       <c r="L17" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K17&amp;"_rh",ObjectOverwrite,Permanent,$K17,B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,DiscountingCurve)</f>
-        <v>EURAB6E10Y_Quote_rh#0000</v>
+        <v>EURAB6E10Y_Quote_rh#0005</v>
       </c>
       <c r="M17" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14702,8 +14704,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J18" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00009#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D18,,,0)</f>
+        <v>dummy_zerospread_11Y#0005</v>
       </c>
       <c r="K18" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14711,7 +14713,7 @@
       </c>
       <c r="L18" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K18&amp;"_rh",ObjectOverwrite,Permanent,$K18,B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,DiscountingCurve)</f>
-        <v>EURAB6E11Y_Quote_rh#0000</v>
+        <v>EURAB6E11Y_Quote_rh#0005</v>
       </c>
       <c r="M18" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14748,8 +14750,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J19" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00011#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D19,,,0)</f>
+        <v>dummy_zerospread_12Y#0005</v>
       </c>
       <c r="K19" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14757,7 +14759,7 @@
       </c>
       <c r="L19" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K19&amp;"_rh",ObjectOverwrite,Permanent,$K19,B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,DiscountingCurve)</f>
-        <v>EURAB6E12Y_Quote_rh#0000</v>
+        <v>EURAB6E12Y_Quote_rh#0005</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14794,8 +14796,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J20" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00008#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D20,,,0)</f>
+        <v>dummy_zerospread_13Y#0005</v>
       </c>
       <c r="K20" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14803,7 +14805,7 @@
       </c>
       <c r="L20" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K20&amp;"_rh",ObjectOverwrite,Permanent,$K20,B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,DiscountingCurve)</f>
-        <v>EURAB6E13Y_Quote_rh#0000</v>
+        <v>EURAB6E13Y_Quote_rh#0005</v>
       </c>
       <c r="M20" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14840,8 +14842,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J21" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001e#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D21,,,0)</f>
+        <v>dummy_zerospread_14Y#0005</v>
       </c>
       <c r="K21" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14849,7 +14851,7 @@
       </c>
       <c r="L21" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K21&amp;"_rh",ObjectOverwrite,Permanent,$K21,B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,DiscountingCurve)</f>
-        <v>EURAB6E14Y_Quote_rh#0000</v>
+        <v>EURAB6E14Y_Quote_rh#0005</v>
       </c>
       <c r="M21" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14886,8 +14888,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J22" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00018#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D22,,,0)</f>
+        <v>dummy_zerospread_15Y#0005</v>
       </c>
       <c r="K22" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14895,7 +14897,7 @@
       </c>
       <c r="L22" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K22&amp;"_rh",ObjectOverwrite,Permanent,$K22,B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,DiscountingCurve)</f>
-        <v>EURAB6E15Y_Quote_rh#0000</v>
+        <v>EURAB6E15Y_Quote_rh#0005</v>
       </c>
       <c r="M22" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14932,8 +14934,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J23" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000b#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D23,,,0)</f>
+        <v>dummy_zerospread_16Y#0005</v>
       </c>
       <c r="K23" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14941,7 +14943,7 @@
       </c>
       <c r="L23" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K23&amp;"_rh",ObjectOverwrite,Permanent,$K23,B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,DiscountingCurve)</f>
-        <v>EURAB6E16Y_Quote_rh#0000</v>
+        <v>EURAB6E16Y_Quote_rh#0005</v>
       </c>
       <c r="M23" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -14978,8 +14980,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J24" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00021#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D24,,,0)</f>
+        <v>dummy_zerospread_17Y#0005</v>
       </c>
       <c r="K24" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14987,7 +14989,7 @@
       </c>
       <c r="L24" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K24&amp;"_rh",ObjectOverwrite,Permanent,$K24,B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,DiscountingCurve)</f>
-        <v>EURAB6E17Y_Quote_rh#0000</v>
+        <v>EURAB6E17Y_Quote_rh#0005</v>
       </c>
       <c r="M24" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15024,8 +15026,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J25" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001d#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D25,,,0)</f>
+        <v>dummy_zerospread_18Y#0005</v>
       </c>
       <c r="K25" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15033,7 +15035,7 @@
       </c>
       <c r="L25" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K25&amp;"_rh",ObjectOverwrite,Permanent,$K25,B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,DiscountingCurve)</f>
-        <v>EURAB6E18Y_Quote_rh#0000</v>
+        <v>EURAB6E18Y_Quote_rh#0005</v>
       </c>
       <c r="M25" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15070,8 +15072,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J26" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00003#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D26,,,0)</f>
+        <v>dummy_zerospread_19Y#0005</v>
       </c>
       <c r="K26" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15079,7 +15081,7 @@
       </c>
       <c r="L26" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K26&amp;"_rh",ObjectOverwrite,Permanent,$K26,B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,DiscountingCurve)</f>
-        <v>EURAB6E19Y_Quote_rh#0000</v>
+        <v>EURAB6E19Y_Quote_rh#0005</v>
       </c>
       <c r="M26" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15116,8 +15118,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J27" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00014#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D27,,,0)</f>
+        <v>dummy_zerospread_20Y#0005</v>
       </c>
       <c r="K27" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15125,7 +15127,7 @@
       </c>
       <c r="L27" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K27&amp;"_rh",ObjectOverwrite,Permanent,$K27,B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,DiscountingCurve)</f>
-        <v>EURAB6E20Y_Quote_rh#0000</v>
+        <v>EURAB6E20Y_Quote_rh#0005</v>
       </c>
       <c r="M27" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15162,8 +15164,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J28" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00002#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D28,,,0)</f>
+        <v>dummy_zerospread_21Y#0005</v>
       </c>
       <c r="K28" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15171,7 +15173,7 @@
       </c>
       <c r="L28" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K28&amp;"_rh",ObjectOverwrite,Permanent,$K28,B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,DiscountingCurve)</f>
-        <v>EURAB6E21Y_Quote_rh#0000</v>
+        <v>EURAB6E21Y_Quote_rh#0005</v>
       </c>
       <c r="M28" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15208,8 +15210,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J29" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001b#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D29,,,0)</f>
+        <v>dummy_zerospread_22Y#0005</v>
       </c>
       <c r="K29" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15217,7 +15219,7 @@
       </c>
       <c r="L29" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K29&amp;"_rh",ObjectOverwrite,Permanent,$K29,B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,DiscountingCurve)</f>
-        <v>EURAB6E22Y_Quote_rh#0000</v>
+        <v>EURAB6E22Y_Quote_rh#0005</v>
       </c>
       <c r="M29" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15254,8 +15256,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J30" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00017#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D30,,,0)</f>
+        <v>dummy_zerospread_23Y#0005</v>
       </c>
       <c r="K30" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15263,7 +15265,7 @@
       </c>
       <c r="L30" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K30&amp;"_rh",ObjectOverwrite,Permanent,$K30,B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,DiscountingCurve)</f>
-        <v>EURAB6E23Y_Quote_rh#0000</v>
+        <v>EURAB6E23Y_Quote_rh#0005</v>
       </c>
       <c r="M30" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15300,8 +15302,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J31" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00006#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D31,,,0)</f>
+        <v>dummy_zerospread_24Y#0005</v>
       </c>
       <c r="K31" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15309,7 +15311,7 @@
       </c>
       <c r="L31" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K31&amp;"_rh",ObjectOverwrite,Permanent,$K31,B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,DiscountingCurve)</f>
-        <v>EURAB6E24Y_Quote_rh#0000</v>
+        <v>EURAB6E24Y_Quote_rh#0005</v>
       </c>
       <c r="M31" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15346,8 +15348,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J32" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00020#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D32,,,0)</f>
+        <v>dummy_zerospread_25Y#0005</v>
       </c>
       <c r="K32" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15355,7 +15357,7 @@
       </c>
       <c r="L32" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K32&amp;"_rh",ObjectOverwrite,Permanent,$K32,B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,DiscountingCurve)</f>
-        <v>EURAB6E25Y_Quote_rh#0000</v>
+        <v>EURAB6E25Y_Quote_rh#0005</v>
       </c>
       <c r="M32" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15392,8 +15394,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J33" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001a#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D33,,,0)</f>
+        <v>dummy_zerospread_26Y#0005</v>
       </c>
       <c r="K33" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15401,7 +15403,7 @@
       </c>
       <c r="L33" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K33&amp;"_rh",ObjectOverwrite,Permanent,$K33,B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,DiscountingCurve)</f>
-        <v>EURAB6E26Y_Quote_rh#0000</v>
+        <v>EURAB6E26Y_Quote_rh#0005</v>
       </c>
       <c r="M33" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15438,8 +15440,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J34" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00019#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D34,,,0)</f>
+        <v>dummy_zerospread_27Y#0005</v>
       </c>
       <c r="K34" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15447,7 +15449,7 @@
       </c>
       <c r="L34" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K34&amp;"_rh",ObjectOverwrite,Permanent,$K34,B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,DiscountingCurve)</f>
-        <v>EURAB6E27Y_Quote_rh#0000</v>
+        <v>EURAB6E27Y_Quote_rh#0005</v>
       </c>
       <c r="M34" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15484,8 +15486,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J35" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00024#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D35,,,0)</f>
+        <v>dummy_zerospread_28Y#0005</v>
       </c>
       <c r="K35" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15493,7 +15495,7 @@
       </c>
       <c r="L35" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K35&amp;"_rh",ObjectOverwrite,Permanent,$K35,B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,DiscountingCurve)</f>
-        <v>EURAB6E28Y_Quote_rh#0000</v>
+        <v>EURAB6E28Y_Quote_rh#0005</v>
       </c>
       <c r="M35" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15530,8 +15532,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J36" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00023#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D36,,,0)</f>
+        <v>dummy_zerospread_29Y#0005</v>
       </c>
       <c r="K36" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15539,7 +15541,7 @@
       </c>
       <c r="L36" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K36&amp;"_rh",ObjectOverwrite,Permanent,$K36,B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,DiscountingCurve)</f>
-        <v>EURAB6E29Y_Quote_rh#0000</v>
+        <v>EURAB6E29Y_Quote_rh#0005</v>
       </c>
       <c r="M36" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15576,8 +15578,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J37" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000c#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D37,,,0)</f>
+        <v>dummy_zerospread_30Y#0005</v>
       </c>
       <c r="K37" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15585,7 +15587,7 @@
       </c>
       <c r="L37" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K37&amp;"_rh",ObjectOverwrite,Permanent,$K37,B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,DiscountingCurve)</f>
-        <v>EURAB6E30Y_Quote_rh#0000</v>
+        <v>EURAB6E30Y_Quote_rh#0005</v>
       </c>
       <c r="M37" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15622,8 +15624,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J38" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000f#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D38,,,0)</f>
+        <v>dummy_zerospread_35Y#0005</v>
       </c>
       <c r="K38" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15631,7 +15633,7 @@
       </c>
       <c r="L38" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K38&amp;"_rh",ObjectOverwrite,Permanent,$K38,B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,DiscountingCurve)</f>
-        <v>EURAB6E35Y_Quote_rh#0000</v>
+        <v>EURAB6E35Y_Quote_rh#0005</v>
       </c>
       <c r="M38" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15668,8 +15670,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J39" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_00000#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D39,,,0)</f>
+        <v>dummy_zerospread_40Y#0005</v>
       </c>
       <c r="K39" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15677,7 +15679,7 @@
       </c>
       <c r="L39" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K39&amp;"_rh",ObjectOverwrite,Permanent,$K39,B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,DiscountingCurve)</f>
-        <v>EURAB6E40Y_Quote_rh#0000</v>
+        <v>EURAB6E40Y_Quote_rh#0005</v>
       </c>
       <c r="M39" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -15714,8 +15716,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J40" s="188" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0001f#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D40,,,0)</f>
+        <v>dummy_zerospread_50Y#0005</v>
       </c>
       <c r="K40" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15723,7 +15725,7 @@
       </c>
       <c r="L40" s="190" t="str">
         <f>_xll.qlSwapRateHelper(,K40&amp;"_rh",ObjectOverwrite,Permanent,$K40,B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,DiscountingCurve)</f>
-        <v>EURAB6E50Y_Quote_rh#0000</v>
+        <v>EURAB6E50Y_Quote_rh#0005</v>
       </c>
       <c r="M40" s="191" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -15760,8 +15762,8 @@
         <v>30/360 (Bond Basis)</v>
       </c>
       <c r="J41" s="193" t="str">
-        <f>_xll.qlSimpleQuote(,,,,0)</f>
-        <v>obj_0000a#0001</v>
+        <f>_xll.qlSimpleQuote(,"dummy_zerospread_"&amp;D41,,,0)</f>
+        <v>dummy_zerospread_60Y#0005</v>
       </c>
       <c r="K41" s="194" t="str">
         <f t="shared" si="1"/>
@@ -15769,7 +15771,7 @@
       </c>
       <c r="L41" s="195" t="str">
         <f>_xll.qlSwapRateHelper(,K41&amp;"_rh",ObjectOverwrite,Permanent,$K41,B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,DiscountingCurve)</f>
-        <v>EURAB6E60Y_Quote_rh#0000</v>
+        <v>EURAB6E60Y_Quote_rh#0005</v>
       </c>
       <c r="M41" s="196" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
